--- a/database/industries/palayesh/shapna/cost/quarterly.xlsx
+++ b/database/industries/palayesh/shapna/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shapna\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shapna\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AFB5CA-21B3-4BAC-B098-D2C241273FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95B31A5-9F77-451E-8FC2-B858F275712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -706,16 +721,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I183"/>
+  <dimension ref="B1:N183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -724,8 +739,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,8 +756,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,8 +773,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -758,8 +788,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -770,8 +805,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -782,8 +822,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -792,8 +837,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -814,8 +864,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -824,98 +889,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>209184805</v>
+      </c>
+      <c r="F10" s="9">
+        <v>317839857</v>
+      </c>
+      <c r="G10" s="9">
+        <v>331587797</v>
+      </c>
+      <c r="H10" s="9">
+        <v>411634812</v>
+      </c>
+      <c r="I10" s="9">
+        <v>410702788</v>
+      </c>
+      <c r="J10" s="9">
         <v>522548868</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>618647139</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>817075747</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>755499733</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>659740205</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>66815</v>
+      </c>
+      <c r="F11" s="11">
+        <v>92517</v>
+      </c>
+      <c r="G11" s="11">
+        <v>134225</v>
+      </c>
+      <c r="H11" s="11">
+        <v>130510</v>
+      </c>
+      <c r="I11" s="11">
+        <v>222752</v>
+      </c>
+      <c r="J11" s="11">
         <v>146035</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>182898</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>219546</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>222069</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>361488</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>1166946</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1206075</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1872005</v>
+      </c>
+      <c r="H12" s="9">
+        <v>3658369</v>
+      </c>
+      <c r="I12" s="9">
+        <v>8249726</v>
+      </c>
+      <c r="J12" s="9">
         <v>8875625</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>3543460</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>8026428</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>10526441</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>11874441</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>210418566</v>
+      </c>
+      <c r="F13" s="13">
+        <v>319138449</v>
+      </c>
+      <c r="G13" s="13">
+        <v>333594027</v>
+      </c>
+      <c r="H13" s="13">
+        <v>415423691</v>
+      </c>
+      <c r="I13" s="13">
+        <v>419175266</v>
+      </c>
+      <c r="J13" s="13">
         <v>531570528</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>622373497</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>825321721</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>766248243</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>671976134</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -934,54 +1064,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>210418566</v>
+      </c>
+      <c r="F15" s="13">
+        <v>319138449</v>
+      </c>
+      <c r="G15" s="13">
+        <v>333594027</v>
+      </c>
+      <c r="H15" s="13">
+        <v>415423691</v>
+      </c>
+      <c r="I15" s="13">
+        <v>419175266</v>
+      </c>
+      <c r="J15" s="13">
         <v>531570528</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>622373497</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>825321721</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>766248243</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>671976134</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-2008789</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-6546633</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-414234</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-6231231</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1095177</v>
+      </c>
+      <c r="J16" s="9">
         <v>3613385</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-3320613</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-9938798</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>12039277</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>1551554</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1000,98 +1175,173 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>208409777</v>
+      </c>
+      <c r="F18" s="15">
+        <v>312591816</v>
+      </c>
+      <c r="G18" s="15">
+        <v>333179793</v>
+      </c>
+      <c r="H18" s="15">
+        <v>409192460</v>
+      </c>
+      <c r="I18" s="15">
+        <v>420270443</v>
+      </c>
+      <c r="J18" s="15">
         <v>535183913</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>619052884</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>815382923</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>778287520</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>673527688</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>3745961</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>24939388</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>14294998</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>71833043</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>124072654</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>146576803</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-6958722</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-12063625</v>
+      </c>
+      <c r="G20" s="9">
+        <v>27788366</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-51720939</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-10797883</v>
+      </c>
+      <c r="J20" s="9">
         <v>-14294998</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-71833045</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-124072654</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-146576803</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-130210856</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>205197016</v>
+      </c>
+      <c r="F21" s="13">
+        <v>300528191</v>
+      </c>
+      <c r="G21" s="13">
+        <v>360968159</v>
+      </c>
+      <c r="H21" s="13">
+        <v>382410909</v>
+      </c>
+      <c r="I21" s="13">
+        <v>409472560</v>
+      </c>
+      <c r="J21" s="13">
         <v>520888915</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>624033659</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>763143312</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>755783373</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>689893635</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1110,30 +1360,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>205197016</v>
+      </c>
+      <c r="F23" s="13">
+        <v>300528191</v>
+      </c>
+      <c r="G23" s="13">
+        <v>360968159</v>
+      </c>
+      <c r="H23" s="13">
+        <v>382410909</v>
+      </c>
+      <c r="I23" s="13">
+        <v>409472560</v>
+      </c>
+      <c r="J23" s="13">
         <v>520888915</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>624033659</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>763143312</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>755783373</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>689893635</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1142,8 +1422,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1152,8 +1437,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1162,10 +1452,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1184,8 +1479,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1194,150 +1504,245 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>7494</v>
+      </c>
+      <c r="F29" s="9">
+        <v>7373</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1939</v>
+      </c>
+      <c r="H29" s="9">
         <v>378</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="I29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+      <c r="J29" s="9">
+        <v>378</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>126</v>
+      </c>
+      <c r="F30" s="11">
+        <v>7859</v>
+      </c>
+      <c r="G30" s="11">
+        <v>3299</v>
+      </c>
+      <c r="H30" s="11">
+        <v>4399</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1425</v>
+      </c>
+      <c r="J30" s="11">
         <v>3897</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11">
         <v>4049</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>82508</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>1761</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>262237</v>
+      </c>
+      <c r="F31" s="9">
+        <v>395372</v>
+      </c>
+      <c r="G31" s="9">
+        <v>287492</v>
+      </c>
+      <c r="H31" s="9">
+        <v>377809</v>
+      </c>
+      <c r="I31" s="9">
+        <v>415314</v>
+      </c>
+      <c r="J31" s="9">
         <v>257067</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9">
         <v>281209</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>296194</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>281209</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>16949</v>
+      </c>
+      <c r="F32" s="11">
+        <v>18390</v>
+      </c>
+      <c r="G32" s="11">
+        <v>18390</v>
+      </c>
+      <c r="H32" s="11">
+        <v>11927</v>
+      </c>
+      <c r="I32" s="11">
+        <v>11927</v>
+      </c>
+      <c r="J32" s="11">
         <v>11982</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11">
         <v>9940</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>9940</v>
       </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>286806</v>
+      </c>
+      <c r="F34" s="13">
+        <v>428994</v>
+      </c>
+      <c r="G34" s="13">
+        <v>311120</v>
+      </c>
+      <c r="H34" s="13">
+        <v>394513</v>
+      </c>
+      <c r="I34" s="13">
+        <v>429044</v>
+      </c>
+      <c r="J34" s="13">
         <v>273324</v>
       </c>
-      <c r="F34" s="13">
-        <v>0</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="K34" s="13">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
         <v>295198</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>388642</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>282970</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1346,8 +1751,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1356,8 +1766,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1366,10 +1781,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1388,8 +1808,23 @@
       <c r="I38" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1398,95 +1833,145 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="9">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>26</v>
+        <v>460</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
       </c>
       <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="9">
         <v>16959</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
+        <v>40089</v>
+      </c>
+      <c r="F41" s="11">
+        <v>30485</v>
+      </c>
+      <c r="G41" s="11">
+        <v>27735</v>
+      </c>
+      <c r="H41" s="11">
+        <v>23473</v>
+      </c>
+      <c r="I41" s="11">
+        <v>31308</v>
+      </c>
+      <c r="J41" s="11">
         <v>29677</v>
       </c>
-      <c r="F41" s="11">
+      <c r="K41" s="11">
         <v>31771</v>
       </c>
-      <c r="G41" s="11">
+      <c r="L41" s="11">
         <v>116229</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>-48772</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>32668</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
+        <v>5169570</v>
+      </c>
+      <c r="F42" s="9">
+        <v>4980008</v>
+      </c>
+      <c r="G42" s="9">
+        <v>5041708</v>
+      </c>
+      <c r="H42" s="9">
+        <v>5131817</v>
+      </c>
+      <c r="I42" s="9">
+        <v>4398231</v>
+      </c>
+      <c r="J42" s="9">
         <v>4985405</v>
       </c>
-      <c r="F42" s="9">
+      <c r="K42" s="9">
         <v>5028269</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>5245664</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>5064441</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>4884931</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>0</v>
+        <v>-427</v>
       </c>
       <c r="F43" s="11">
         <v>0</v>
       </c>
       <c r="G43" s="11">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="H43" s="11">
         <v>0</v>
@@ -1494,54 +1979,99 @@
       <c r="I43" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
+        <v>5209232</v>
+      </c>
+      <c r="F45" s="13">
+        <v>5013625</v>
+      </c>
+      <c r="G45" s="13">
+        <v>5070275</v>
+      </c>
+      <c r="H45" s="13">
+        <v>5155290</v>
+      </c>
+      <c r="I45" s="13">
+        <v>4429539</v>
+      </c>
+      <c r="J45" s="13">
         <v>5015082</v>
       </c>
-      <c r="F45" s="13">
+      <c r="K45" s="13">
         <v>5060040</v>
       </c>
-      <c r="G45" s="13">
+      <c r="L45" s="13">
         <v>5361893</v>
       </c>
-      <c r="H45" s="13">
+      <c r="M45" s="13">
         <v>5015669</v>
       </c>
-      <c r="I45" s="13">
+      <c r="N45" s="13">
         <v>4934558</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1550,8 +2080,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1560,8 +2095,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1570,10 +2110,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1592,8 +2137,23 @@
       <c r="I49" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1602,150 +2162,245 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F51" s="9">
+        <v>8566</v>
+      </c>
+      <c r="G51" s="9">
+        <v>2112</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9">
         <v>287</v>
       </c>
-      <c r="G51" s="9">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="9">
+      <c r="L51" s="9">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="9">
         <v>15963</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
+        <v>32356</v>
+      </c>
+      <c r="F52" s="11">
+        <v>35045</v>
+      </c>
+      <c r="G52" s="11">
+        <v>26634</v>
+      </c>
+      <c r="H52" s="11">
+        <v>26447</v>
+      </c>
+      <c r="I52" s="11">
+        <v>28836</v>
+      </c>
+      <c r="J52" s="11">
         <v>29346</v>
       </c>
-      <c r="F52" s="11">
+      <c r="K52" s="11">
         <v>31950</v>
       </c>
-      <c r="G52" s="11">
+      <c r="L52" s="11">
         <v>37770</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>31975</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>31022</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>5036435</v>
+      </c>
+      <c r="F53" s="9">
+        <v>5087888</v>
+      </c>
+      <c r="G53" s="9">
+        <v>4951390</v>
+      </c>
+      <c r="H53" s="9">
+        <v>5094312</v>
+      </c>
+      <c r="I53" s="9">
+        <v>4556478</v>
+      </c>
+      <c r="J53" s="9">
         <v>5000052</v>
       </c>
-      <c r="F53" s="9">
+      <c r="K53" s="9">
         <v>4989481</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>5230679</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>5079426</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>4873694</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>0</v>
+        <v>-1868</v>
       </c>
       <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>6834</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
         <v>1987</v>
       </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
         <v>9940</v>
       </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>5067044</v>
+      </c>
+      <c r="F56" s="13">
+        <v>5131499</v>
+      </c>
+      <c r="G56" s="13">
+        <v>4986970</v>
+      </c>
+      <c r="H56" s="13">
+        <v>5120759</v>
+      </c>
+      <c r="I56" s="13">
+        <v>4585314</v>
+      </c>
+      <c r="J56" s="13">
         <v>5029398</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>5023705</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>5268449</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>5121341</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>4920679</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1754,8 +2409,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1764,8 +2424,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1774,10 +2439,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1796,8 +2466,23 @@
       <c r="I60" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1806,150 +2491,245 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
+        <v>7373</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1939</v>
+      </c>
+      <c r="G62" s="9">
+        <v>287</v>
+      </c>
+      <c r="H62" s="9">
         <v>378</v>
       </c>
-      <c r="F62" s="9">
-        <v>0</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="I62" s="9">
+        <v>378</v>
+      </c>
+      <c r="J62" s="9">
+        <v>378</v>
+      </c>
+      <c r="K62" s="9">
+        <v>0</v>
+      </c>
+      <c r="L62" s="9">
+        <v>0</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="9">
         <v>996</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
+        <v>7859</v>
+      </c>
+      <c r="F63" s="11">
+        <v>3299</v>
+      </c>
+      <c r="G63" s="11">
+        <v>4400</v>
+      </c>
+      <c r="H63" s="11">
+        <v>1425</v>
+      </c>
+      <c r="I63" s="11">
+        <v>3897</v>
+      </c>
+      <c r="J63" s="11">
         <v>4228</v>
       </c>
-      <c r="F63" s="11">
+      <c r="K63" s="11">
         <v>4049</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>82508</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>1761</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>3407</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>395372</v>
+      </c>
+      <c r="F64" s="9">
+        <v>287492</v>
+      </c>
+      <c r="G64" s="9">
+        <v>377810</v>
+      </c>
+      <c r="H64" s="9">
+        <v>415314</v>
+      </c>
+      <c r="I64" s="9">
+        <v>257067</v>
+      </c>
+      <c r="J64" s="9">
         <v>242420</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>281208</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>296194</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>281209</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>292446</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>18390</v>
+      </c>
+      <c r="F65" s="11">
+        <v>18390</v>
+      </c>
+      <c r="G65" s="11">
+        <v>11928</v>
+      </c>
+      <c r="H65" s="11">
+        <v>11927</v>
+      </c>
+      <c r="I65" s="11">
         <v>11982</v>
       </c>
-      <c r="F65" s="11">
+      <c r="J65" s="11">
+        <v>11982</v>
+      </c>
+      <c r="K65" s="11">
         <v>9940</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>9940</v>
       </c>
-      <c r="H65" s="11">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M65" s="11">
+        <v>0</v>
+      </c>
+      <c r="N65" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
+        <v>428994</v>
+      </c>
+      <c r="F67" s="13">
+        <v>311120</v>
+      </c>
+      <c r="G67" s="13">
+        <v>394425</v>
+      </c>
+      <c r="H67" s="13">
+        <v>429044</v>
+      </c>
+      <c r="I67" s="13">
+        <v>273324</v>
+      </c>
+      <c r="J67" s="13">
         <v>259008</v>
       </c>
-      <c r="F67" s="13">
+      <c r="K67" s="13">
         <v>295197</v>
       </c>
-      <c r="G67" s="13">
+      <c r="L67" s="13">
         <v>388642</v>
       </c>
-      <c r="H67" s="13">
+      <c r="M67" s="13">
         <v>282970</v>
       </c>
-      <c r="I67" s="13">
+      <c r="N67" s="13">
         <v>296849</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1958,8 +2738,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1968,8 +2753,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1978,10 +2768,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2000,8 +2795,23 @@
       <c r="I71" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2010,150 +2820,245 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
+        <v>79904</v>
+      </c>
+      <c r="F73" s="9">
+        <v>78610</v>
+      </c>
+      <c r="G73" s="9">
+        <v>132735</v>
+      </c>
+      <c r="H73" s="9">
         <v>263108</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="9">
-        <v>0</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="I73" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>263108</v>
+      </c>
+      <c r="J73" s="9">
+        <v>263108</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
+        <v>5588</v>
+      </c>
+      <c r="F74" s="11">
+        <v>653812</v>
+      </c>
+      <c r="G74" s="11">
+        <v>277110</v>
+      </c>
+      <c r="H74" s="11">
+        <v>428834</v>
+      </c>
+      <c r="I74" s="11">
+        <v>208719</v>
+      </c>
+      <c r="J74" s="11">
         <v>639762</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="11">
+      <c r="K74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="11">
         <v>787769</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>858761</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>561198</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
+        <v>7054196</v>
+      </c>
+      <c r="F75" s="9">
+        <v>18299208</v>
+      </c>
+      <c r="G75" s="9">
+        <v>20262882</v>
+      </c>
+      <c r="H75" s="9">
+        <v>29631664</v>
+      </c>
+      <c r="I75" s="9">
+        <v>33348498</v>
+      </c>
+      <c r="J75" s="9">
         <v>23407710</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="9">
+      <c r="K75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="9">
         <v>39777449</v>
       </c>
-      <c r="H75" s="9">
+      <c r="M75" s="9">
         <v>48498966</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>34513834</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>478703</v>
+      </c>
+      <c r="F76" s="11">
+        <v>292347</v>
+      </c>
+      <c r="G76" s="11">
+        <v>292348</v>
+      </c>
+      <c r="H76" s="11">
         <v>307515</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="11">
+      <c r="I76" s="11">
+        <v>294442</v>
+      </c>
+      <c r="J76" s="11">
+        <v>307515</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76" s="11">
         <v>256276</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>256276</v>
       </c>
-      <c r="I76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
+        <v>7618391</v>
+      </c>
+      <c r="F78" s="13">
+        <v>19323977</v>
+      </c>
+      <c r="G78" s="13">
+        <v>20965075</v>
+      </c>
+      <c r="H78" s="13">
+        <v>30631121</v>
+      </c>
+      <c r="I78" s="13">
+        <v>34114767</v>
+      </c>
+      <c r="J78" s="13">
         <v>24618095</v>
       </c>
-      <c r="F78" s="13">
-        <v>0</v>
-      </c>
-      <c r="G78" s="13">
+      <c r="K78" s="13">
+        <v>0</v>
+      </c>
+      <c r="L78" s="13">
         <v>40821494</v>
       </c>
-      <c r="H78" s="13">
+      <c r="M78" s="13">
         <v>49614003</v>
       </c>
-      <c r="I78" s="13">
+      <c r="N78" s="13">
         <v>35075032</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2162,8 +3067,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2172,8 +3082,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2182,10 +3097,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2204,8 +3124,23 @@
       <c r="I82" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2214,95 +3149,145 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
         <v>0</v>
       </c>
       <c r="F84" s="9">
-        <v>0</v>
+        <v>262951</v>
       </c>
       <c r="G84" s="9">
-        <v>0</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>26</v>
+        <v>40248</v>
+      </c>
+      <c r="H84" s="9">
+        <v>0</v>
       </c>
       <c r="I84" s="9">
+        <v>0</v>
+      </c>
+      <c r="J84" s="9">
+        <v>0</v>
+      </c>
+      <c r="K84" s="9">
+        <v>0</v>
+      </c>
+      <c r="L84" s="9">
+        <v>0</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="9">
         <v>2486227</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
+        <v>4163743</v>
+      </c>
+      <c r="F85" s="11">
+        <v>2611531</v>
+      </c>
+      <c r="G85" s="11">
+        <v>3944959</v>
+      </c>
+      <c r="H85" s="11">
+        <v>3657159</v>
+      </c>
+      <c r="I85" s="11">
+        <v>5630154</v>
+      </c>
+      <c r="J85" s="11">
         <v>5719854</v>
       </c>
-      <c r="F85" s="11">
+      <c r="K85" s="11">
         <v>8032466</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>11387414</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>10608497</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>8061521</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
+        <v>216787886</v>
+      </c>
+      <c r="F86" s="9">
+        <v>316606473</v>
+      </c>
+      <c r="G86" s="9">
+        <v>337016806</v>
+      </c>
+      <c r="H86" s="9">
+        <v>411461299</v>
+      </c>
+      <c r="I86" s="9">
+        <v>395575962</v>
+      </c>
+      <c r="J86" s="9">
         <v>517631819</v>
       </c>
-      <c r="F86" s="9">
+      <c r="K86" s="9">
         <v>626257371</v>
       </c>
-      <c r="G86" s="9">
+      <c r="L86" s="9">
         <v>814480842</v>
       </c>
-      <c r="H86" s="9">
+      <c r="M86" s="9">
         <v>730352265</v>
       </c>
-      <c r="I86" s="9">
+      <c r="N86" s="9">
         <v>652454552</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>0</v>
+        <v>-61238</v>
       </c>
       <c r="F87" s="11">
         <v>0</v>
       </c>
       <c r="G87" s="11">
-        <v>0</v>
+        <v>9723</v>
       </c>
       <c r="H87" s="11">
         <v>0</v>
@@ -2310,54 +3295,99 @@
       <c r="I87" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="11">
+        <v>0</v>
+      </c>
+      <c r="K87" s="11">
+        <v>0</v>
+      </c>
+      <c r="L87" s="11">
+        <v>0</v>
+      </c>
+      <c r="M87" s="11">
+        <v>0</v>
+      </c>
+      <c r="N87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
+        <v>220890391</v>
+      </c>
+      <c r="F89" s="13">
+        <v>319480955</v>
+      </c>
+      <c r="G89" s="13">
+        <v>341011736</v>
+      </c>
+      <c r="H89" s="13">
+        <v>415118458</v>
+      </c>
+      <c r="I89" s="13">
+        <v>401206116</v>
+      </c>
+      <c r="J89" s="13">
         <v>523351673</v>
       </c>
-      <c r="F89" s="13">
+      <c r="K89" s="13">
         <v>634289837</v>
       </c>
-      <c r="G89" s="13">
+      <c r="L89" s="13">
         <v>825868256</v>
       </c>
-      <c r="H89" s="13">
+      <c r="M89" s="13">
         <v>740960762</v>
       </c>
-      <c r="I89" s="13">
+      <c r="N89" s="13">
         <v>663002300</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2366,8 +3396,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2376,8 +3411,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2386,10 +3426,15 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2408,8 +3453,23 @@
       <c r="I93" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2418,150 +3478,245 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>0</v>
+        <v>1294</v>
       </c>
       <c r="F95" s="9">
+        <v>208826</v>
+      </c>
+      <c r="G95" s="9">
+        <v>151980</v>
+      </c>
+      <c r="H95" s="9">
+        <v>0</v>
+      </c>
+      <c r="I95" s="9">
+        <v>0</v>
+      </c>
+      <c r="J95" s="9">
+        <v>0</v>
+      </c>
+      <c r="K95" s="9">
         <v>21004</v>
       </c>
-      <c r="G95" s="9">
-        <v>0</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I95" s="9">
+      <c r="L95" s="9">
+        <v>0</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="9">
         <v>2340213</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
+        <v>3515519</v>
+      </c>
+      <c r="F96" s="11">
+        <v>2988233</v>
+      </c>
+      <c r="G96" s="11">
+        <v>3793235</v>
+      </c>
+      <c r="H96" s="11">
+        <v>3877274</v>
+      </c>
+      <c r="I96" s="11">
+        <v>5199111</v>
+      </c>
+      <c r="J96" s="11">
         <v>5625328</v>
       </c>
-      <c r="F96" s="11">
+      <c r="K96" s="11">
         <v>7978985</v>
       </c>
-      <c r="G96" s="11">
+      <c r="L96" s="11">
         <v>11316422</v>
       </c>
-      <c r="H96" s="11">
+      <c r="M96" s="11">
         <v>10906060</v>
       </c>
-      <c r="I96" s="11">
+      <c r="N96" s="11">
         <v>7613760</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>205542874</v>
+      </c>
+      <c r="F97" s="9">
+        <v>314642799</v>
+      </c>
+      <c r="G97" s="9">
+        <v>327648025</v>
+      </c>
+      <c r="H97" s="9">
+        <v>407744465</v>
+      </c>
+      <c r="I97" s="9">
+        <v>405516750</v>
+      </c>
+      <c r="J97" s="9">
         <v>516923540</v>
       </c>
-      <c r="F97" s="9">
+      <c r="K97" s="9">
         <v>610595911</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>805759325</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>744337397</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>649786232</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>0</v>
+        <v>125118</v>
       </c>
       <c r="F98" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G98" s="11">
+        <v>-5443</v>
+      </c>
+      <c r="H98" s="11">
+        <v>13073</v>
+      </c>
+      <c r="I98" s="11">
+        <v>-13073</v>
+      </c>
+      <c r="J98" s="11">
+        <v>0</v>
+      </c>
+      <c r="K98" s="11">
         <v>51239</v>
       </c>
-      <c r="G98" s="11">
-        <v>0</v>
-      </c>
-      <c r="H98" s="11">
+      <c r="L98" s="11">
+        <v>0</v>
+      </c>
+      <c r="M98" s="11">
         <v>256276</v>
       </c>
-      <c r="I98" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
+        <v>209184805</v>
+      </c>
+      <c r="F100" s="13">
+        <v>317839857</v>
+      </c>
+      <c r="G100" s="13">
+        <v>331587797</v>
+      </c>
+      <c r="H100" s="13">
+        <v>411634812</v>
+      </c>
+      <c r="I100" s="13">
+        <v>410702788</v>
+      </c>
+      <c r="J100" s="13">
         <v>522548868</v>
       </c>
-      <c r="F100" s="13">
+      <c r="K100" s="13">
         <v>618647139</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>817075747</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>755499733</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>659740205</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2570,8 +3725,13 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2580,8 +3740,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2590,10 +3755,15 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2612,8 +3782,23 @@
       <c r="I104" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2622,150 +3807,245 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
+        <v>78610</v>
+      </c>
+      <c r="F106" s="9">
+        <v>132735</v>
+      </c>
+      <c r="G106" s="9">
+        <v>21003</v>
+      </c>
+      <c r="H106" s="9">
         <v>263108</v>
       </c>
-      <c r="F106" s="9">
-        <v>0</v>
-      </c>
-      <c r="G106" s="9">
-        <v>0</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="I106" s="9">
+        <v>263108</v>
+      </c>
+      <c r="J106" s="9">
+        <v>263108</v>
+      </c>
+      <c r="K106" s="9">
+        <v>0</v>
+      </c>
+      <c r="L106" s="9">
+        <v>0</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N106" s="9">
         <v>146014</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
+        <v>653812</v>
+      </c>
+      <c r="F107" s="11">
+        <v>277110</v>
+      </c>
+      <c r="G107" s="11">
+        <v>428834</v>
+      </c>
+      <c r="H107" s="11">
+        <v>208719</v>
+      </c>
+      <c r="I107" s="11">
+        <v>639762</v>
+      </c>
+      <c r="J107" s="11">
         <v>734288</v>
       </c>
-      <c r="F107" s="11">
+      <c r="K107" s="11">
         <v>787769</v>
       </c>
-      <c r="G107" s="11">
+      <c r="L107" s="11">
         <v>858761</v>
       </c>
-      <c r="H107" s="11">
+      <c r="M107" s="11">
         <v>561198</v>
       </c>
-      <c r="I107" s="11">
+      <c r="N107" s="11">
         <v>1008959</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
+        <v>18299208</v>
+      </c>
+      <c r="F108" s="9">
+        <v>20262882</v>
+      </c>
+      <c r="G108" s="9">
+        <v>29631663</v>
+      </c>
+      <c r="H108" s="9">
+        <v>33348498</v>
+      </c>
+      <c r="I108" s="9">
+        <v>23407710</v>
+      </c>
+      <c r="J108" s="9">
         <v>24115989</v>
       </c>
-      <c r="F108" s="9">
+      <c r="K108" s="9">
         <v>39777449</v>
       </c>
-      <c r="G108" s="9">
+      <c r="L108" s="9">
         <v>48498966</v>
       </c>
-      <c r="H108" s="9">
+      <c r="M108" s="9">
         <v>34513834</v>
       </c>
-      <c r="I108" s="9">
+      <c r="N108" s="9">
         <v>37182154</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
+        <v>292347</v>
+      </c>
+      <c r="F109" s="11">
+        <v>292348</v>
+      </c>
+      <c r="G109" s="11">
+        <v>307514</v>
+      </c>
+      <c r="H109" s="11">
+        <v>294442</v>
+      </c>
+      <c r="I109" s="11">
         <v>307515</v>
       </c>
-      <c r="F109" s="11">
+      <c r="J109" s="11">
+        <v>307515</v>
+      </c>
+      <c r="K109" s="11">
         <v>256276</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>256276</v>
       </c>
-      <c r="H109" s="11">
-        <v>0</v>
-      </c>
-      <c r="I109" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M109" s="11">
+        <v>0</v>
+      </c>
+      <c r="N109" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
+        <v>19323977</v>
+      </c>
+      <c r="F111" s="13">
+        <v>20965075</v>
+      </c>
+      <c r="G111" s="13">
+        <v>30389014</v>
+      </c>
+      <c r="H111" s="13">
+        <v>34114767</v>
+      </c>
+      <c r="I111" s="13">
+        <v>24618095</v>
+      </c>
+      <c r="J111" s="13">
         <v>25420900</v>
       </c>
-      <c r="F111" s="13">
+      <c r="K111" s="13">
         <v>40821494</v>
       </c>
-      <c r="G111" s="13">
+      <c r="L111" s="13">
         <v>49614003</v>
       </c>
-      <c r="H111" s="13">
+      <c r="M111" s="13">
         <v>35075032</v>
       </c>
-      <c r="I111" s="13">
+      <c r="N111" s="13">
         <v>38337127</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2774,8 +4054,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2784,8 +4069,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2794,10 +4084,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2816,8 +4111,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2826,128 +4136,208 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
+        <v>10662397</v>
+      </c>
+      <c r="F117" s="9">
+        <v>10661874</v>
+      </c>
+      <c r="G117" s="9">
+        <v>68455389</v>
+      </c>
+      <c r="H117" s="9">
         <v>696052910</v>
       </c>
-      <c r="F117" s="9">
+      <c r="I117" s="9">
         <v>696052910</v>
       </c>
-      <c r="G117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I117" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="9">
+        <v>696052910</v>
+      </c>
+      <c r="K117" s="9">
+        <v>696052910</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>44349206</v>
+      </c>
+      <c r="F118" s="11">
+        <v>83192773</v>
+      </c>
+      <c r="G118" s="11">
+        <v>83998181</v>
+      </c>
+      <c r="H118" s="11">
+        <v>97484428</v>
+      </c>
+      <c r="I118" s="11">
+        <v>146469474</v>
+      </c>
+      <c r="J118" s="11">
         <v>164167821</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>173672658</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>194558903</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>10408215</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>318681431</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
+        <v>26900079</v>
+      </c>
+      <c r="F119" s="9">
+        <v>46283520</v>
+      </c>
+      <c r="G119" s="9">
+        <v>70481551</v>
+      </c>
+      <c r="H119" s="9">
+        <v>78430276</v>
+      </c>
+      <c r="I119" s="9">
+        <v>80297072</v>
+      </c>
+      <c r="J119" s="9">
         <v>91056845</v>
       </c>
-      <c r="F119" s="9">
+      <c r="K119" s="9">
         <v>99480196</v>
       </c>
-      <c r="G119" s="9">
+      <c r="L119" s="9">
         <v>141451550</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>163740542</v>
       </c>
-      <c r="I119" s="9">
+      <c r="N119" s="9">
         <v>122733746</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
+        <v>28243731</v>
+      </c>
+      <c r="F120" s="11">
+        <v>15897064</v>
+      </c>
+      <c r="G120" s="11">
+        <v>15897118</v>
+      </c>
+      <c r="H120" s="11">
+        <v>25783097</v>
+      </c>
+      <c r="I120" s="11">
+        <v>24687013</v>
+      </c>
+      <c r="J120" s="11">
         <v>25664747</v>
       </c>
-      <c r="F120" s="11">
+      <c r="K120" s="11">
         <v>25664747</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>25782294</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>25782294</v>
       </c>
-      <c r="I120" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N120" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M121" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N121" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2956,8 +4346,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2966,8 +4361,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2976,10 +4376,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -2998,8 +4403,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3008,104 +4428,169 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F127" s="9">
+        <v>83956258</v>
+      </c>
+      <c r="G127" s="9">
+        <v>87495652</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I127" s="9">
+        <v>31</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" s="9">
         <v>146602217</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>103862481</v>
+      </c>
+      <c r="F128" s="11">
+        <v>85666098</v>
+      </c>
+      <c r="G128" s="11">
+        <v>142237570</v>
+      </c>
+      <c r="H128" s="11">
+        <v>155802795</v>
+      </c>
+      <c r="I128" s="11">
+        <v>179831161</v>
+      </c>
+      <c r="J128" s="11">
         <v>192736934</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>252823833</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>97973948</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>-217512036</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>246771183</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
+        <v>41935381</v>
+      </c>
+      <c r="F129" s="9">
+        <v>63575495</v>
+      </c>
+      <c r="G129" s="9">
+        <v>66845761</v>
+      </c>
+      <c r="H129" s="9">
+        <v>80178482</v>
+      </c>
+      <c r="I129" s="9">
+        <v>89939788</v>
+      </c>
+      <c r="J129" s="9">
         <v>103829442</v>
       </c>
-      <c r="F129" s="9">
+      <c r="K129" s="9">
         <v>124547309</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>155267444</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>144211822</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>133564743</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>26</v>
+      <c r="E130" s="11">
+        <v>143414520</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G130" s="11">
+        <v>26137097</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3114,8 +4599,13 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3124,8 +4614,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3134,10 +4629,15 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3156,8 +4656,23 @@
       <c r="I134" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3166,128 +4681,208 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D136" s="9"/>
-      <c r="E136" s="9" t="s">
-        <v>26</v>
+      <c r="E136" s="9">
+        <v>10694215</v>
       </c>
       <c r="F136" s="9">
+        <v>24378473</v>
+      </c>
+      <c r="G136" s="9">
+        <v>71960227</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K136" s="9">
         <v>73184669</v>
       </c>
-      <c r="G136" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I136" s="9">
+      <c r="L136" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M136" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N136" s="9">
         <v>146602330</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
+        <v>108651224</v>
+      </c>
+      <c r="F137" s="11">
+        <v>85268455</v>
+      </c>
+      <c r="G137" s="11">
+        <v>142420778</v>
+      </c>
+      <c r="H137" s="11">
+        <v>146605437</v>
+      </c>
+      <c r="I137" s="11">
+        <v>180299313</v>
+      </c>
+      <c r="J137" s="11">
         <v>191689770</v>
       </c>
-      <c r="F137" s="11">
+      <c r="K137" s="11">
         <v>249733490</v>
       </c>
-      <c r="G137" s="11">
+      <c r="L137" s="11">
         <v>299614032</v>
       </c>
-      <c r="H137" s="11">
+      <c r="M137" s="11">
         <v>341080844</v>
       </c>
-      <c r="I137" s="11">
+      <c r="N137" s="11">
         <v>245430984</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9">
+        <v>40811184</v>
+      </c>
+      <c r="F138" s="9">
+        <v>61841534</v>
+      </c>
+      <c r="G138" s="9">
+        <v>66172938</v>
+      </c>
+      <c r="H138" s="9">
+        <v>80039162</v>
+      </c>
+      <c r="I138" s="9">
+        <v>88997851</v>
+      </c>
+      <c r="J138" s="9">
         <v>103383633</v>
       </c>
-      <c r="F138" s="9">
+      <c r="K138" s="9">
         <v>122376638</v>
       </c>
-      <c r="G138" s="9">
+      <c r="L138" s="9">
         <v>154044881</v>
       </c>
-      <c r="H138" s="9">
+      <c r="M138" s="9">
         <v>146539667</v>
       </c>
-      <c r="I138" s="9">
+      <c r="N138" s="9">
         <v>133325201</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D139" s="11"/>
-      <c r="E139" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F139" s="11">
+      <c r="E139" s="11">
+        <v>-66979657</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" s="11">
+        <v>-796459</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K139" s="11">
         <v>25787116</v>
       </c>
-      <c r="G139" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H139" s="11">
+      <c r="L139" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M139" s="11">
         <v>25782294</v>
       </c>
-      <c r="I139" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N139" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M140" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N140" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3296,8 +4891,13 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3306,8 +4906,13 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3316,10 +4921,15 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -3338,8 +4948,23 @@
       <c r="I144" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N144" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3348,128 +4973,208 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D146" s="9"/>
-      <c r="E146" s="9">
+      <c r="E146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" s="9">
         <v>696052910</v>
       </c>
-      <c r="F146" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I146" s="9">
+      <c r="J146" s="9">
+        <v>696052910</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N146" s="9">
         <v>146600402</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D147" s="11"/>
-      <c r="E147" s="11">
+      <c r="E147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" s="11">
+        <v>164167821</v>
+      </c>
+      <c r="J147" s="11">
         <v>173672658</v>
       </c>
-      <c r="F147" s="11">
+      <c r="K147" s="11">
         <v>194558903</v>
       </c>
-      <c r="G147" s="11">
+      <c r="L147" s="11">
         <v>10408215</v>
       </c>
-      <c r="H147" s="11">
+      <c r="M147" s="11">
         <v>318681431</v>
       </c>
-      <c r="I147" s="11">
+      <c r="N147" s="11">
         <v>296142941</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D148" s="9"/>
-      <c r="E148" s="9">
+      <c r="E148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I148" s="9">
+        <v>91056845</v>
+      </c>
+      <c r="J148" s="9">
         <v>99480196</v>
       </c>
-      <c r="F148" s="9">
+      <c r="K148" s="9">
         <v>141452053</v>
       </c>
-      <c r="G148" s="9">
+      <c r="L148" s="9">
         <v>163740542</v>
       </c>
-      <c r="H148" s="9">
+      <c r="M148" s="9">
         <v>122733746</v>
       </c>
-      <c r="I148" s="9">
+      <c r="N148" s="9">
         <v>127141948</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D149" s="11"/>
-      <c r="E149" s="11">
+      <c r="E149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" s="11">
         <v>25664747</v>
       </c>
-      <c r="F149" s="11">
+      <c r="J149" s="11">
+        <v>25664747</v>
+      </c>
+      <c r="K149" s="11">
         <v>25782294</v>
       </c>
-      <c r="G149" s="11">
+      <c r="L149" s="11">
         <v>25782294</v>
       </c>
-      <c r="H149" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I149" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N149" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3478,8 +5183,13 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3488,8 +5198,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3498,10 +5213,15 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -3520,8 +5240,23 @@
       <c r="I154" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3530,10 +5265,15 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -3541,21 +5281,36 @@
         <v>0</v>
       </c>
       <c r="F156" s="9">
+        <v>0</v>
+      </c>
+      <c r="G156" s="9">
+        <v>0</v>
+      </c>
+      <c r="H156" s="9">
+        <v>0</v>
+      </c>
+      <c r="I156" s="9">
+        <v>0</v>
+      </c>
+      <c r="J156" s="9">
+        <v>0</v>
+      </c>
+      <c r="K156" s="9">
         <v>-5495817</v>
       </c>
-      <c r="G156" s="9">
-        <v>0</v>
-      </c>
-      <c r="H156" s="9">
+      <c r="L156" s="9">
+        <v>0</v>
+      </c>
+      <c r="M156" s="9">
         <v>-2926543</v>
       </c>
-      <c r="I156" s="9">
+      <c r="N156" s="9">
         <v>-1362326</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -3574,10 +5329,25 @@
       <c r="I157" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="11">
+        <v>0</v>
+      </c>
+      <c r="K157" s="11">
+        <v>0</v>
+      </c>
+      <c r="L157" s="11">
+        <v>0</v>
+      </c>
+      <c r="M157" s="11">
+        <v>0</v>
+      </c>
+      <c r="N157" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -3596,10 +5366,25 @@
       <c r="I158" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="9">
+        <v>0</v>
+      </c>
+      <c r="K158" s="9">
+        <v>0</v>
+      </c>
+      <c r="L158" s="9">
+        <v>0</v>
+      </c>
+      <c r="M158" s="9">
+        <v>0</v>
+      </c>
+      <c r="N158" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -3618,98 +5403,173 @@
       <c r="I159" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="11">
+        <v>0</v>
+      </c>
+      <c r="K159" s="11">
+        <v>0</v>
+      </c>
+      <c r="L159" s="11">
+        <v>0</v>
+      </c>
+      <c r="M159" s="11">
+        <v>0</v>
+      </c>
+      <c r="N159" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9">
+        <v>0</v>
+      </c>
+      <c r="F160" s="9">
+        <v>-1928307</v>
+      </c>
+      <c r="G160" s="9">
+        <v>-1563457</v>
+      </c>
+      <c r="H160" s="9">
+        <v>-919861</v>
+      </c>
+      <c r="I160" s="9">
+        <v>-797980</v>
+      </c>
+      <c r="J160" s="9">
         <v>-890009</v>
       </c>
-      <c r="F160" s="9">
+      <c r="K160" s="9">
         <v>2607850</v>
       </c>
-      <c r="G160" s="9">
+      <c r="L160" s="9">
         <v>-1473482</v>
       </c>
-      <c r="H160" s="9">
+      <c r="M160" s="9">
         <v>1473482</v>
       </c>
-      <c r="I160" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N160" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11">
+        <v>399878</v>
+      </c>
+      <c r="F161" s="11">
+        <v>324176</v>
+      </c>
+      <c r="G161" s="11">
+        <v>451091</v>
+      </c>
+      <c r="H161" s="11">
+        <v>2464140</v>
+      </c>
+      <c r="I161" s="11">
+        <v>2271363</v>
+      </c>
+      <c r="J161" s="11">
         <v>5333614</v>
       </c>
-      <c r="F161" s="11">
+      <c r="K161" s="11">
         <v>8168248</v>
       </c>
-      <c r="G161" s="11">
+      <c r="L161" s="11">
         <v>5588894</v>
       </c>
-      <c r="H161" s="11">
+      <c r="M161" s="11">
         <v>7352297</v>
       </c>
-      <c r="I161" s="11">
+      <c r="N161" s="11">
         <v>6656631</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9">
+        <v>421050</v>
+      </c>
+      <c r="F162" s="9">
+        <v>393648</v>
+      </c>
+      <c r="G162" s="9">
+        <v>363351</v>
+      </c>
+      <c r="H162" s="9">
+        <v>410857</v>
+      </c>
+      <c r="I162" s="9">
+        <v>356620</v>
+      </c>
+      <c r="J162" s="9">
         <v>383738</v>
       </c>
-      <c r="F162" s="9">
+      <c r="K162" s="9">
         <v>777219</v>
       </c>
-      <c r="G162" s="9">
+      <c r="L162" s="9">
         <v>474680</v>
       </c>
-      <c r="H162" s="9">
+      <c r="M162" s="9">
         <v>590753</v>
       </c>
-      <c r="I162" s="9">
+      <c r="N162" s="9">
         <v>536913</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11">
+        <v>327889</v>
+      </c>
+      <c r="F163" s="11">
+        <v>559360</v>
+      </c>
+      <c r="G163" s="11">
+        <v>1347431</v>
+      </c>
+      <c r="H163" s="11">
+        <v>903439</v>
+      </c>
+      <c r="I163" s="11">
+        <v>-700677</v>
+      </c>
+      <c r="J163" s="11">
         <v>2663068</v>
       </c>
-      <c r="F163" s="11">
+      <c r="K163" s="11">
         <v>1096389</v>
       </c>
-      <c r="G163" s="11">
+      <c r="L163" s="11">
         <v>1279380</v>
       </c>
-      <c r="H163" s="11">
+      <c r="M163" s="11">
         <v>2467244</v>
       </c>
-      <c r="I163" s="11">
+      <c r="N163" s="11">
         <v>4001913</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -3728,52 +5588,97 @@
       <c r="I164" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="9">
+        <v>0</v>
+      </c>
+      <c r="K164" s="9">
+        <v>0</v>
+      </c>
+      <c r="L164" s="9">
+        <v>0</v>
+      </c>
+      <c r="M164" s="9">
+        <v>0</v>
+      </c>
+      <c r="N164" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11">
+        <v>18129</v>
+      </c>
+      <c r="F165" s="11">
+        <v>1857198</v>
+      </c>
+      <c r="G165" s="11">
+        <v>1273589</v>
+      </c>
+      <c r="H165" s="11">
+        <v>799793</v>
+      </c>
+      <c r="I165" s="11">
+        <v>7120401</v>
+      </c>
+      <c r="J165" s="11">
         <v>1385214</v>
       </c>
-      <c r="F165" s="11">
+      <c r="K165" s="11">
         <v>-3610429</v>
       </c>
-      <c r="G165" s="11">
+      <c r="L165" s="11">
         <v>2156956</v>
       </c>
-      <c r="H165" s="11">
+      <c r="M165" s="11">
         <v>1569208</v>
       </c>
-      <c r="I165" s="11">
+      <c r="N165" s="11">
         <v>2041310</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15">
+        <v>1166946</v>
+      </c>
+      <c r="F166" s="15">
+        <v>1206075</v>
+      </c>
+      <c r="G166" s="15">
+        <v>1872005</v>
+      </c>
+      <c r="H166" s="15">
+        <v>3658368</v>
+      </c>
+      <c r="I166" s="15">
+        <v>8249727</v>
+      </c>
+      <c r="J166" s="15">
         <v>8875625</v>
       </c>
-      <c r="F166" s="15">
+      <c r="K166" s="15">
         <v>3543460</v>
       </c>
-      <c r="G166" s="15">
+      <c r="L166" s="15">
         <v>8026428</v>
       </c>
-      <c r="H166" s="15">
+      <c r="M166" s="15">
         <v>10526441</v>
       </c>
-      <c r="I166" s="15">
+      <c r="N166" s="15">
         <v>11874441</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3782,8 +5687,13 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3792,8 +5702,13 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3802,10 +5717,15 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -3814,8 +5734,13 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -3824,13 +5749,18 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -3838,123 +5768,128 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>

--- a/database/industries/palayesh/shapna/cost/quarterly.xlsx
+++ b/database/industries/palayesh/shapna/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shapna\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shapna\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95B31A5-9F77-451E-8FC2-B858F275712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98457C5-790E-493B-8091-CB52B1C3516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -725,12 +725,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -745,7 +745,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -794,7 +794,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,7 +843,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -880,7 +880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -895,155 +895,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>209184805</v>
+        <v>317839857</v>
       </c>
       <c r="F10" s="9">
-        <v>317839857</v>
+        <v>331587797</v>
       </c>
       <c r="G10" s="9">
-        <v>331587797</v>
+        <v>411634812</v>
       </c>
       <c r="H10" s="9">
-        <v>411634812</v>
+        <v>410702788</v>
       </c>
       <c r="I10" s="9">
-        <v>410702788</v>
+        <v>522548868</v>
       </c>
       <c r="J10" s="9">
-        <v>522548868</v>
+        <v>618647139</v>
       </c>
       <c r="K10" s="9">
-        <v>618647139</v>
+        <v>817075747</v>
       </c>
       <c r="L10" s="9">
-        <v>817075747</v>
+        <v>755499733</v>
       </c>
       <c r="M10" s="9">
-        <v>755499733</v>
+        <v>659740205</v>
       </c>
       <c r="N10" s="9">
-        <v>659740205</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>701890446</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>66815</v>
+        <v>92517</v>
       </c>
       <c r="F11" s="11">
-        <v>92517</v>
+        <v>134225</v>
       </c>
       <c r="G11" s="11">
-        <v>134225</v>
+        <v>130510</v>
       </c>
       <c r="H11" s="11">
-        <v>130510</v>
+        <v>222752</v>
       </c>
       <c r="I11" s="11">
-        <v>222752</v>
+        <v>146035</v>
       </c>
       <c r="J11" s="11">
-        <v>146035</v>
+        <v>182898</v>
       </c>
       <c r="K11" s="11">
-        <v>182898</v>
+        <v>219546</v>
       </c>
       <c r="L11" s="11">
-        <v>219546</v>
+        <v>222069</v>
       </c>
       <c r="M11" s="11">
-        <v>222069</v>
+        <v>361488</v>
       </c>
       <c r="N11" s="11">
-        <v>361488</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>830747</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1166946</v>
+        <v>1206075</v>
       </c>
       <c r="F12" s="9">
-        <v>1206075</v>
+        <v>1872005</v>
       </c>
       <c r="G12" s="9">
-        <v>1872005</v>
+        <v>3658369</v>
       </c>
       <c r="H12" s="9">
-        <v>3658369</v>
+        <v>8249726</v>
       </c>
       <c r="I12" s="9">
-        <v>8249726</v>
+        <v>8875625</v>
       </c>
       <c r="J12" s="9">
-        <v>8875625</v>
+        <v>3543460</v>
       </c>
       <c r="K12" s="9">
-        <v>3543460</v>
+        <v>8026428</v>
       </c>
       <c r="L12" s="9">
-        <v>8026428</v>
+        <v>10526441</v>
       </c>
       <c r="M12" s="9">
-        <v>10526441</v>
+        <v>11874441</v>
       </c>
       <c r="N12" s="9">
-        <v>11874441</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18510562</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>210418566</v>
+        <v>319138449</v>
       </c>
       <c r="F13" s="13">
-        <v>319138449</v>
+        <v>333594027</v>
       </c>
       <c r="G13" s="13">
-        <v>333594027</v>
+        <v>415423691</v>
       </c>
       <c r="H13" s="13">
-        <v>415423691</v>
+        <v>419175266</v>
       </c>
       <c r="I13" s="13">
-        <v>419175266</v>
+        <v>531570528</v>
       </c>
       <c r="J13" s="13">
-        <v>531570528</v>
+        <v>622373497</v>
       </c>
       <c r="K13" s="13">
-        <v>622373497</v>
+        <v>825321721</v>
       </c>
       <c r="L13" s="13">
-        <v>825321721</v>
+        <v>766248243</v>
       </c>
       <c r="M13" s="13">
-        <v>766248243</v>
+        <v>671976134</v>
       </c>
       <c r="N13" s="13">
-        <v>671976134</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>721231755</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1080,81 +1080,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>210418566</v>
+        <v>319138449</v>
       </c>
       <c r="F15" s="13">
-        <v>319138449</v>
+        <v>333594027</v>
       </c>
       <c r="G15" s="13">
-        <v>333594027</v>
+        <v>415423691</v>
       </c>
       <c r="H15" s="13">
-        <v>415423691</v>
+        <v>419175266</v>
       </c>
       <c r="I15" s="13">
-        <v>419175266</v>
+        <v>531570528</v>
       </c>
       <c r="J15" s="13">
-        <v>531570528</v>
+        <v>622373497</v>
       </c>
       <c r="K15" s="13">
-        <v>622373497</v>
+        <v>825321721</v>
       </c>
       <c r="L15" s="13">
-        <v>825321721</v>
+        <v>766248243</v>
       </c>
       <c r="M15" s="13">
-        <v>766248243</v>
+        <v>671976134</v>
       </c>
       <c r="N15" s="13">
-        <v>671976134</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>721231755</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-2008789</v>
+        <v>-6546633</v>
       </c>
       <c r="F16" s="9">
-        <v>-6546633</v>
+        <v>-414234</v>
       </c>
       <c r="G16" s="9">
-        <v>-414234</v>
+        <v>-6231231</v>
       </c>
       <c r="H16" s="9">
-        <v>-6231231</v>
+        <v>1095177</v>
       </c>
       <c r="I16" s="9">
-        <v>1095177</v>
+        <v>3613385</v>
       </c>
       <c r="J16" s="9">
-        <v>3613385</v>
+        <v>-3320615</v>
       </c>
       <c r="K16" s="9">
-        <v>-3320613</v>
+        <v>-9938798</v>
       </c>
       <c r="L16" s="9">
-        <v>-9938798</v>
+        <v>12039277</v>
       </c>
       <c r="M16" s="9">
-        <v>12039277</v>
+        <v>1551554</v>
       </c>
       <c r="N16" s="9">
-        <v>1551554</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5322878</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1191,155 +1191,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>208409777</v>
+        <v>312591816</v>
       </c>
       <c r="F18" s="15">
-        <v>312591816</v>
+        <v>333179793</v>
       </c>
       <c r="G18" s="15">
-        <v>333179793</v>
+        <v>409192460</v>
       </c>
       <c r="H18" s="15">
-        <v>409192460</v>
+        <v>420270443</v>
       </c>
       <c r="I18" s="15">
-        <v>420270443</v>
+        <v>535183913</v>
       </c>
       <c r="J18" s="15">
-        <v>535183913</v>
+        <v>619052882</v>
       </c>
       <c r="K18" s="15">
-        <v>619052884</v>
+        <v>815382923</v>
       </c>
       <c r="L18" s="15">
-        <v>815382923</v>
+        <v>778287520</v>
       </c>
       <c r="M18" s="15">
-        <v>778287520</v>
+        <v>673527688</v>
       </c>
       <c r="N18" s="15">
-        <v>673527688</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>715908877</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>3745961</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>52727754</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>24939388</v>
       </c>
       <c r="H19" s="11">
-        <v>24939388</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>76813820</v>
       </c>
       <c r="K19" s="11">
-        <v>14294998</v>
+        <v>71833043</v>
       </c>
       <c r="L19" s="11">
-        <v>71833043</v>
+        <v>124072654</v>
       </c>
       <c r="M19" s="11">
-        <v>124072654</v>
+        <v>146576803</v>
       </c>
       <c r="N19" s="11">
-        <v>146576803</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>130210856</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-6958722</v>
+        <v>-12063625</v>
       </c>
       <c r="F20" s="9">
-        <v>-12063625</v>
+        <v>-24939388</v>
       </c>
       <c r="G20" s="9">
-        <v>27788366</v>
+        <v>-51720939</v>
       </c>
       <c r="H20" s="9">
-        <v>-51720939</v>
+        <v>-10797883</v>
       </c>
       <c r="I20" s="9">
-        <v>-10797883</v>
+        <v>-14294998</v>
       </c>
       <c r="J20" s="9">
-        <v>-14294998</v>
+        <v>-71833043</v>
       </c>
       <c r="K20" s="9">
-        <v>-71833045</v>
+        <v>-124072654</v>
       </c>
       <c r="L20" s="9">
-        <v>-124072654</v>
+        <v>-146576803</v>
       </c>
       <c r="M20" s="9">
-        <v>-146576803</v>
+        <v>-130210856</v>
       </c>
       <c r="N20" s="9">
-        <v>-130210856</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-102181679</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>205197016</v>
+        <v>300528191</v>
       </c>
       <c r="F21" s="13">
-        <v>300528191</v>
+        <v>360968159</v>
       </c>
       <c r="G21" s="13">
-        <v>360968159</v>
+        <v>382410909</v>
       </c>
       <c r="H21" s="13">
-        <v>382410909</v>
+        <v>409472560</v>
       </c>
       <c r="I21" s="13">
-        <v>409472560</v>
+        <v>520888915</v>
       </c>
       <c r="J21" s="13">
-        <v>520888915</v>
+        <v>624033659</v>
       </c>
       <c r="K21" s="13">
-        <v>624033659</v>
+        <v>763143312</v>
       </c>
       <c r="L21" s="13">
-        <v>763143312</v>
+        <v>755783373</v>
       </c>
       <c r="M21" s="13">
-        <v>755783373</v>
+        <v>689893635</v>
       </c>
       <c r="N21" s="13">
-        <v>689893635</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>743938052</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1376,44 +1376,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>205197016</v>
+        <v>300528191</v>
       </c>
       <c r="F23" s="13">
-        <v>300528191</v>
+        <v>360968159</v>
       </c>
       <c r="G23" s="13">
-        <v>360968159</v>
+        <v>382410909</v>
       </c>
       <c r="H23" s="13">
-        <v>382410909</v>
+        <v>409472560</v>
       </c>
       <c r="I23" s="13">
-        <v>409472560</v>
+        <v>520888915</v>
       </c>
       <c r="J23" s="13">
-        <v>520888915</v>
+        <v>624033659</v>
       </c>
       <c r="K23" s="13">
-        <v>624033659</v>
+        <v>763143312</v>
       </c>
       <c r="L23" s="13">
-        <v>763143312</v>
+        <v>755783373</v>
       </c>
       <c r="M23" s="13">
-        <v>755783373</v>
+        <v>689893635</v>
       </c>
       <c r="N23" s="13">
-        <v>689893635</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>743938052</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1428,7 +1428,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1443,7 +1443,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1458,7 +1458,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1510,7 +1510,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1519,13 +1519,13 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>7494</v>
+        <v>7373</v>
       </c>
       <c r="F29" s="9">
-        <v>7373</v>
+        <v>1939</v>
       </c>
       <c r="G29" s="9">
-        <v>1939</v>
+        <v>378</v>
       </c>
       <c r="H29" s="9">
         <v>378</v>
@@ -1536,20 +1536,20 @@
       <c r="J29" s="9">
         <v>378</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>31</v>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
       </c>
       <c r="N29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1558,37 +1558,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>126</v>
+        <v>7859</v>
       </c>
       <c r="F30" s="11">
-        <v>7859</v>
+        <v>3299</v>
       </c>
       <c r="G30" s="11">
-        <v>3299</v>
+        <v>4399</v>
       </c>
       <c r="H30" s="11">
-        <v>4399</v>
+        <v>1425</v>
       </c>
       <c r="I30" s="11">
-        <v>1425</v>
+        <v>3897</v>
       </c>
       <c r="J30" s="11">
-        <v>3897</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>31</v>
+        <v>4228</v>
+      </c>
+      <c r="K30" s="11">
+        <v>4049</v>
       </c>
       <c r="L30" s="11">
-        <v>4049</v>
+        <v>82508</v>
       </c>
       <c r="M30" s="11">
-        <v>82508</v>
+        <v>1761</v>
       </c>
       <c r="N30" s="11">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1597,37 +1597,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>262237</v>
+        <v>395372</v>
       </c>
       <c r="F31" s="9">
-        <v>395372</v>
+        <v>287492</v>
       </c>
       <c r="G31" s="9">
-        <v>287492</v>
+        <v>377809</v>
       </c>
       <c r="H31" s="9">
-        <v>377809</v>
+        <v>415314</v>
       </c>
       <c r="I31" s="9">
-        <v>415314</v>
+        <v>257067</v>
       </c>
       <c r="J31" s="9">
-        <v>257067</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>31</v>
+        <v>242420</v>
+      </c>
+      <c r="K31" s="9">
+        <v>281209</v>
       </c>
       <c r="L31" s="9">
+        <v>296194</v>
+      </c>
+      <c r="M31" s="9">
         <v>281209</v>
       </c>
-      <c r="M31" s="9">
-        <v>296194</v>
-      </c>
       <c r="N31" s="9">
-        <v>281209</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>292446</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1636,37 +1636,37 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>16949</v>
+        <v>18390</v>
       </c>
       <c r="F32" s="11">
         <v>18390</v>
       </c>
       <c r="G32" s="11">
-        <v>18390</v>
+        <v>11927</v>
       </c>
       <c r="H32" s="11">
         <v>11927</v>
       </c>
       <c r="I32" s="11">
-        <v>11927</v>
+        <v>11982</v>
       </c>
       <c r="J32" s="11">
         <v>11982</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>31</v>
+      <c r="K32" s="11">
+        <v>9940</v>
       </c>
       <c r="L32" s="11">
         <v>9940</v>
       </c>
       <c r="M32" s="11">
-        <v>9940</v>
+        <v>0</v>
       </c>
       <c r="N32" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1705,44 +1705,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>286806</v>
+        <v>428994</v>
       </c>
       <c r="F34" s="13">
-        <v>428994</v>
+        <v>311120</v>
       </c>
       <c r="G34" s="13">
-        <v>311120</v>
+        <v>394513</v>
       </c>
       <c r="H34" s="13">
-        <v>394513</v>
+        <v>429044</v>
       </c>
       <c r="I34" s="13">
-        <v>429044</v>
+        <v>273324</v>
       </c>
       <c r="J34" s="13">
-        <v>273324</v>
+        <v>259008</v>
       </c>
       <c r="K34" s="13">
-        <v>0</v>
+        <v>295198</v>
       </c>
       <c r="L34" s="13">
-        <v>295198</v>
+        <v>388642</v>
       </c>
       <c r="M34" s="13">
-        <v>388642</v>
+        <v>282970</v>
       </c>
       <c r="N34" s="13">
-        <v>282970</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>296849</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1757,7 +1757,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1772,7 +1772,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1787,7 +1787,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>36</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1839,7 +1839,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>29</v>
       </c>
@@ -1848,13 +1848,13 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="F40" s="9">
-        <v>3132</v>
+        <v>460</v>
       </c>
       <c r="G40" s="9">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="H40" s="9">
         <v>0</v>
@@ -1868,17 +1868,17 @@
       <c r="K40" s="9">
         <v>0</v>
       </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>31</v>
+      <c r="L40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="9">
+        <v>16959</v>
       </c>
       <c r="N40" s="9">
-        <v>16959</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>32</v>
       </c>
@@ -1887,37 +1887,37 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>40089</v>
+        <v>30485</v>
       </c>
       <c r="F41" s="11">
-        <v>30485</v>
+        <v>27735</v>
       </c>
       <c r="G41" s="11">
-        <v>27735</v>
+        <v>23473</v>
       </c>
       <c r="H41" s="11">
-        <v>23473</v>
+        <v>31308</v>
       </c>
       <c r="I41" s="11">
-        <v>31308</v>
+        <v>29677</v>
       </c>
       <c r="J41" s="11">
-        <v>29677</v>
+        <v>31771</v>
       </c>
       <c r="K41" s="11">
-        <v>31771</v>
+        <v>116229</v>
       </c>
       <c r="L41" s="11">
-        <v>116229</v>
+        <v>-48772</v>
       </c>
       <c r="M41" s="11">
-        <v>-48772</v>
+        <v>32668</v>
       </c>
       <c r="N41" s="11">
-        <v>32668</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>75994</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>33</v>
       </c>
@@ -1926,37 +1926,37 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>5169570</v>
+        <v>4980008</v>
       </c>
       <c r="F42" s="9">
-        <v>4980008</v>
+        <v>5041708</v>
       </c>
       <c r="G42" s="9">
-        <v>5041708</v>
+        <v>5131817</v>
       </c>
       <c r="H42" s="9">
-        <v>5131817</v>
+        <v>4398231</v>
       </c>
       <c r="I42" s="9">
-        <v>4398231</v>
+        <v>4985405</v>
       </c>
       <c r="J42" s="9">
-        <v>4985405</v>
+        <v>5028269</v>
       </c>
       <c r="K42" s="9">
-        <v>5028269</v>
+        <v>5245664</v>
       </c>
       <c r="L42" s="9">
-        <v>5245664</v>
+        <v>5064441</v>
       </c>
       <c r="M42" s="9">
-        <v>5064441</v>
+        <v>4884931</v>
       </c>
       <c r="N42" s="9">
-        <v>4884931</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5383606</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>34</v>
       </c>
@@ -1965,13 +1965,13 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>-427</v>
+        <v>0</v>
       </c>
       <c r="F43" s="11">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="G43" s="11">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="H43" s="11">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>35</v>
       </c>
@@ -2034,44 +2034,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>5209232</v>
+        <v>5013625</v>
       </c>
       <c r="F45" s="13">
-        <v>5013625</v>
+        <v>5070275</v>
       </c>
       <c r="G45" s="13">
-        <v>5070275</v>
+        <v>5155290</v>
       </c>
       <c r="H45" s="13">
-        <v>5155290</v>
+        <v>4429539</v>
       </c>
       <c r="I45" s="13">
-        <v>4429539</v>
+        <v>5015082</v>
       </c>
       <c r="J45" s="13">
-        <v>5015082</v>
+        <v>5060040</v>
       </c>
       <c r="K45" s="13">
-        <v>5060040</v>
+        <v>5361893</v>
       </c>
       <c r="L45" s="13">
-        <v>5361893</v>
+        <v>5015669</v>
       </c>
       <c r="M45" s="13">
-        <v>5015669</v>
+        <v>4934558</v>
       </c>
       <c r="N45" s="13">
-        <v>4934558</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5459600</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2086,7 +2086,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2101,7 +2101,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2116,7 +2116,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>37</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2168,7 +2168,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -2177,13 +2177,13 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>121</v>
+        <v>8566</v>
       </c>
       <c r="F51" s="9">
-        <v>8566</v>
+        <v>2112</v>
       </c>
       <c r="G51" s="9">
-        <v>2112</v>
+        <v>0</v>
       </c>
       <c r="H51" s="9">
         <v>0</v>
@@ -2192,22 +2192,22 @@
         <v>0</v>
       </c>
       <c r="J51" s="9">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="K51" s="9">
-        <v>287</v>
-      </c>
-      <c r="L51" s="9">
-        <v>0</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="9">
+        <v>15963</v>
       </c>
       <c r="N51" s="9">
-        <v>15963</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
@@ -2216,37 +2216,37 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>32356</v>
+        <v>35045</v>
       </c>
       <c r="F52" s="11">
-        <v>35045</v>
+        <v>26634</v>
       </c>
       <c r="G52" s="11">
-        <v>26634</v>
+        <v>26447</v>
       </c>
       <c r="H52" s="11">
-        <v>26447</v>
+        <v>28836</v>
       </c>
       <c r="I52" s="11">
-        <v>28836</v>
+        <v>29346</v>
       </c>
       <c r="J52" s="11">
-        <v>29346</v>
+        <v>31950</v>
       </c>
       <c r="K52" s="11">
-        <v>31950</v>
+        <v>37770</v>
       </c>
       <c r="L52" s="11">
-        <v>37770</v>
+        <v>31975</v>
       </c>
       <c r="M52" s="11">
-        <v>31975</v>
+        <v>31022</v>
       </c>
       <c r="N52" s="11">
-        <v>31022</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>72484</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>33</v>
       </c>
@@ -2255,37 +2255,37 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>5036435</v>
+        <v>5087888</v>
       </c>
       <c r="F53" s="9">
-        <v>5087888</v>
+        <v>4951390</v>
       </c>
       <c r="G53" s="9">
-        <v>4951390</v>
+        <v>5094312</v>
       </c>
       <c r="H53" s="9">
-        <v>5094312</v>
+        <v>4556478</v>
       </c>
       <c r="I53" s="9">
-        <v>4556478</v>
+        <v>5000052</v>
       </c>
       <c r="J53" s="9">
-        <v>5000052</v>
+        <v>4989481</v>
       </c>
       <c r="K53" s="9">
-        <v>4989481</v>
+        <v>5230679</v>
       </c>
       <c r="L53" s="9">
-        <v>5230679</v>
+        <v>5079426</v>
       </c>
       <c r="M53" s="9">
-        <v>5079426</v>
+        <v>4873694</v>
       </c>
       <c r="N53" s="9">
-        <v>4873694</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5447531</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>34</v>
       </c>
@@ -2294,13 +2294,13 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>-1868</v>
+        <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>0</v>
+        <v>6834</v>
       </c>
       <c r="G54" s="11">
-        <v>6834</v>
+        <v>0</v>
       </c>
       <c r="H54" s="11">
         <v>0</v>
@@ -2309,22 +2309,22 @@
         <v>0</v>
       </c>
       <c r="J54" s="11">
-        <v>0</v>
+        <v>1987</v>
       </c>
       <c r="K54" s="11">
-        <v>1987</v>
+        <v>0</v>
       </c>
       <c r="L54" s="11">
-        <v>0</v>
+        <v>9940</v>
       </c>
       <c r="M54" s="11">
-        <v>9940</v>
+        <v>0</v>
       </c>
       <c r="N54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-9781</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>35</v>
       </c>
@@ -2363,44 +2363,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>5067044</v>
+        <v>5131499</v>
       </c>
       <c r="F56" s="13">
-        <v>5131499</v>
+        <v>4986970</v>
       </c>
       <c r="G56" s="13">
-        <v>4986970</v>
+        <v>5120759</v>
       </c>
       <c r="H56" s="13">
-        <v>5120759</v>
+        <v>4585314</v>
       </c>
       <c r="I56" s="13">
-        <v>4585314</v>
+        <v>5029398</v>
       </c>
       <c r="J56" s="13">
-        <v>5029398</v>
+        <v>5023705</v>
       </c>
       <c r="K56" s="13">
-        <v>5023705</v>
+        <v>5268449</v>
       </c>
       <c r="L56" s="13">
-        <v>5268449</v>
+        <v>5121341</v>
       </c>
       <c r="M56" s="13">
-        <v>5121341</v>
+        <v>4920679</v>
       </c>
       <c r="N56" s="13">
-        <v>4920679</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5511230</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2415,7 +2415,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2430,7 +2430,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2445,7 +2445,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>38</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2497,7 +2497,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>29</v>
       </c>
@@ -2506,13 +2506,13 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>7373</v>
+        <v>1939</v>
       </c>
       <c r="F62" s="9">
-        <v>1939</v>
+        <v>287</v>
       </c>
       <c r="G62" s="9">
-        <v>287</v>
+        <v>378</v>
       </c>
       <c r="H62" s="9">
         <v>378</v>
@@ -2521,22 +2521,22 @@
         <v>378</v>
       </c>
       <c r="J62" s="9">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="K62" s="9">
         <v>0</v>
       </c>
-      <c r="L62" s="9">
-        <v>0</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>31</v>
+      <c r="L62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="9">
+        <v>996</v>
       </c>
       <c r="N62" s="9">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>32</v>
       </c>
@@ -2545,37 +2545,37 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>7859</v>
+        <v>3299</v>
       </c>
       <c r="F63" s="11">
-        <v>3299</v>
+        <v>4400</v>
       </c>
       <c r="G63" s="11">
-        <v>4400</v>
+        <v>1425</v>
       </c>
       <c r="H63" s="11">
-        <v>1425</v>
+        <v>3897</v>
       </c>
       <c r="I63" s="11">
-        <v>3897</v>
+        <v>4228</v>
       </c>
       <c r="J63" s="11">
-        <v>4228</v>
+        <v>4049</v>
       </c>
       <c r="K63" s="11">
-        <v>4049</v>
+        <v>82508</v>
       </c>
       <c r="L63" s="11">
-        <v>82508</v>
+        <v>1761</v>
       </c>
       <c r="M63" s="11">
-        <v>1761</v>
+        <v>3407</v>
       </c>
       <c r="N63" s="11">
-        <v>3407</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6917</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>33</v>
       </c>
@@ -2584,37 +2584,37 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>395372</v>
+        <v>287492</v>
       </c>
       <c r="F64" s="9">
-        <v>287492</v>
+        <v>377810</v>
       </c>
       <c r="G64" s="9">
-        <v>377810</v>
+        <v>415314</v>
       </c>
       <c r="H64" s="9">
-        <v>415314</v>
+        <v>257067</v>
       </c>
       <c r="I64" s="9">
-        <v>257067</v>
+        <v>242420</v>
       </c>
       <c r="J64" s="9">
-        <v>242420</v>
+        <v>281208</v>
       </c>
       <c r="K64" s="9">
-        <v>281208</v>
+        <v>296194</v>
       </c>
       <c r="L64" s="9">
-        <v>296194</v>
+        <v>281209</v>
       </c>
       <c r="M64" s="9">
-        <v>281209</v>
+        <v>292446</v>
       </c>
       <c r="N64" s="9">
-        <v>292446</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>228521</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>34</v>
       </c>
@@ -2626,34 +2626,34 @@
         <v>18390</v>
       </c>
       <c r="F65" s="11">
-        <v>18390</v>
+        <v>11928</v>
       </c>
       <c r="G65" s="11">
-        <v>11928</v>
+        <v>11927</v>
       </c>
       <c r="H65" s="11">
-        <v>11927</v>
+        <v>11982</v>
       </c>
       <c r="I65" s="11">
         <v>11982</v>
       </c>
       <c r="J65" s="11">
-        <v>11982</v>
+        <v>9940</v>
       </c>
       <c r="K65" s="11">
         <v>9940</v>
       </c>
       <c r="L65" s="11">
-        <v>9940</v>
+        <v>0</v>
       </c>
       <c r="M65" s="11">
         <v>0</v>
       </c>
       <c r="N65" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9781</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>35</v>
       </c>
@@ -2692,44 +2692,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>428994</v>
+        <v>311120</v>
       </c>
       <c r="F67" s="13">
-        <v>311120</v>
+        <v>394425</v>
       </c>
       <c r="G67" s="13">
-        <v>394425</v>
+        <v>429044</v>
       </c>
       <c r="H67" s="13">
-        <v>429044</v>
+        <v>273324</v>
       </c>
       <c r="I67" s="13">
-        <v>273324</v>
+        <v>259008</v>
       </c>
       <c r="J67" s="13">
-        <v>259008</v>
+        <v>295197</v>
       </c>
       <c r="K67" s="13">
-        <v>295197</v>
+        <v>388642</v>
       </c>
       <c r="L67" s="13">
-        <v>388642</v>
+        <v>282970</v>
       </c>
       <c r="M67" s="13">
-        <v>282970</v>
+        <v>296849</v>
       </c>
       <c r="N67" s="13">
-        <v>296849</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>245219</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2744,7 +2744,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2759,7 +2759,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2774,7 +2774,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>39</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2826,7 +2826,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>29</v>
       </c>
@@ -2835,13 +2835,13 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>79904</v>
+        <v>78610</v>
       </c>
       <c r="F73" s="9">
-        <v>78610</v>
+        <v>132735</v>
       </c>
       <c r="G73" s="9">
-        <v>132735</v>
+        <v>263108</v>
       </c>
       <c r="H73" s="9">
         <v>263108</v>
@@ -2852,20 +2852,20 @@
       <c r="J73" s="9">
         <v>263108</v>
       </c>
-      <c r="K73" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L73" s="9">
-        <v>0</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>31</v>
+      <c r="K73" s="9">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="9">
+        <v>0</v>
       </c>
       <c r="N73" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>146014</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>32</v>
       </c>
@@ -2874,37 +2874,37 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>5588</v>
+        <v>653812</v>
       </c>
       <c r="F74" s="11">
-        <v>653812</v>
+        <v>277110</v>
       </c>
       <c r="G74" s="11">
-        <v>277110</v>
+        <v>428834</v>
       </c>
       <c r="H74" s="11">
-        <v>428834</v>
+        <v>208719</v>
       </c>
       <c r="I74" s="11">
-        <v>208719</v>
+        <v>639762</v>
       </c>
       <c r="J74" s="11">
-        <v>639762</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>31</v>
+        <v>734288</v>
+      </c>
+      <c r="K74" s="11">
+        <v>787769</v>
       </c>
       <c r="L74" s="11">
-        <v>787769</v>
+        <v>858761</v>
       </c>
       <c r="M74" s="11">
-        <v>858761</v>
+        <v>561198</v>
       </c>
       <c r="N74" s="11">
-        <v>561198</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1008959</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>33</v>
       </c>
@@ -2913,37 +2913,37 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>7054196</v>
+        <v>18299208</v>
       </c>
       <c r="F75" s="9">
-        <v>18299208</v>
+        <v>20262882</v>
       </c>
       <c r="G75" s="9">
-        <v>20262882</v>
+        <v>29631664</v>
       </c>
       <c r="H75" s="9">
-        <v>29631664</v>
+        <v>33348498</v>
       </c>
       <c r="I75" s="9">
-        <v>33348498</v>
+        <v>23407710</v>
       </c>
       <c r="J75" s="9">
-        <v>23407710</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>31</v>
+        <v>24115989</v>
+      </c>
+      <c r="K75" s="9">
+        <v>39777449</v>
       </c>
       <c r="L75" s="9">
-        <v>39777449</v>
+        <v>48498966</v>
       </c>
       <c r="M75" s="9">
-        <v>48498966</v>
+        <v>34513834</v>
       </c>
       <c r="N75" s="9">
-        <v>34513834</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>37182154</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>34</v>
       </c>
@@ -2952,37 +2952,37 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>478703</v>
+        <v>292347</v>
       </c>
       <c r="F76" s="11">
-        <v>292347</v>
+        <v>292348</v>
       </c>
       <c r="G76" s="11">
-        <v>292348</v>
+        <v>307515</v>
       </c>
       <c r="H76" s="11">
+        <v>294442</v>
+      </c>
+      <c r="I76" s="11">
         <v>307515</v>
-      </c>
-      <c r="I76" s="11">
-        <v>294442</v>
       </c>
       <c r="J76" s="11">
         <v>307515</v>
       </c>
-      <c r="K76" s="11" t="s">
-        <v>31</v>
+      <c r="K76" s="11">
+        <v>256276</v>
       </c>
       <c r="L76" s="11">
         <v>256276</v>
       </c>
       <c r="M76" s="11">
-        <v>256276</v>
+        <v>0</v>
       </c>
       <c r="N76" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>35</v>
       </c>
@@ -3021,44 +3021,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>7618391</v>
+        <v>19323977</v>
       </c>
       <c r="F78" s="13">
-        <v>19323977</v>
+        <v>20965075</v>
       </c>
       <c r="G78" s="13">
-        <v>20965075</v>
+        <v>30631121</v>
       </c>
       <c r="H78" s="13">
-        <v>30631121</v>
+        <v>34114767</v>
       </c>
       <c r="I78" s="13">
-        <v>34114767</v>
+        <v>24618095</v>
       </c>
       <c r="J78" s="13">
-        <v>24618095</v>
+        <v>25420900</v>
       </c>
       <c r="K78" s="13">
-        <v>0</v>
+        <v>40821494</v>
       </c>
       <c r="L78" s="13">
-        <v>40821494</v>
+        <v>49614003</v>
       </c>
       <c r="M78" s="13">
-        <v>49614003</v>
+        <v>35075032</v>
       </c>
       <c r="N78" s="13">
-        <v>35075032</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38337127</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3073,7 +3073,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3088,7 +3088,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3103,7 +3103,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>41</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3155,7 +3155,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>29</v>
       </c>
@@ -3164,13 +3164,13 @@
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
-        <v>0</v>
+        <v>262951</v>
       </c>
       <c r="F84" s="9">
-        <v>262951</v>
+        <v>40248</v>
       </c>
       <c r="G84" s="9">
-        <v>40248</v>
+        <v>0</v>
       </c>
       <c r="H84" s="9">
         <v>0</v>
@@ -3184,17 +3184,17 @@
       <c r="K84" s="9">
         <v>0</v>
       </c>
-      <c r="L84" s="9">
-        <v>0</v>
-      </c>
-      <c r="M84" s="9" t="s">
-        <v>31</v>
+      <c r="L84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" s="9">
+        <v>2486227</v>
       </c>
       <c r="N84" s="9">
-        <v>2486227</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>32</v>
       </c>
@@ -3203,37 +3203,37 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>4163743</v>
+        <v>2611531</v>
       </c>
       <c r="F85" s="11">
-        <v>2611531</v>
+        <v>3944959</v>
       </c>
       <c r="G85" s="11">
-        <v>3944959</v>
+        <v>3657159</v>
       </c>
       <c r="H85" s="11">
-        <v>3657159</v>
+        <v>5630154</v>
       </c>
       <c r="I85" s="11">
-        <v>5630154</v>
+        <v>5719854</v>
       </c>
       <c r="J85" s="11">
-        <v>5719854</v>
+        <v>8032466</v>
       </c>
       <c r="K85" s="11">
-        <v>8032466</v>
+        <v>11387414</v>
       </c>
       <c r="L85" s="11">
-        <v>11387414</v>
+        <v>10608497</v>
       </c>
       <c r="M85" s="11">
-        <v>10608497</v>
+        <v>8061521</v>
       </c>
       <c r="N85" s="11">
-        <v>8061521</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10148640</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>33</v>
       </c>
@@ -3242,37 +3242,37 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
-        <v>216787886</v>
+        <v>316606473</v>
       </c>
       <c r="F86" s="9">
-        <v>316606473</v>
+        <v>337016806</v>
       </c>
       <c r="G86" s="9">
-        <v>337016806</v>
+        <v>411461299</v>
       </c>
       <c r="H86" s="9">
-        <v>411461299</v>
+        <v>395575962</v>
       </c>
       <c r="I86" s="9">
-        <v>395575962</v>
+        <v>517631819</v>
       </c>
       <c r="J86" s="9">
-        <v>517631819</v>
+        <v>626257371</v>
       </c>
       <c r="K86" s="9">
-        <v>626257371</v>
+        <v>814480842</v>
       </c>
       <c r="L86" s="9">
-        <v>814480842</v>
+        <v>730352265</v>
       </c>
       <c r="M86" s="9">
-        <v>730352265</v>
+        <v>652454552</v>
       </c>
       <c r="N86" s="9">
-        <v>652454552</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>684080639</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>34</v>
       </c>
@@ -3281,13 +3281,13 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>-61238</v>
+        <v>0</v>
       </c>
       <c r="F87" s="11">
-        <v>0</v>
+        <v>9723</v>
       </c>
       <c r="G87" s="11">
-        <v>9723</v>
+        <v>0</v>
       </c>
       <c r="H87" s="11">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>35</v>
       </c>
@@ -3350,44 +3350,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>220890391</v>
+        <v>319480955</v>
       </c>
       <c r="F89" s="13">
-        <v>319480955</v>
+        <v>341011736</v>
       </c>
       <c r="G89" s="13">
-        <v>341011736</v>
+        <v>415118458</v>
       </c>
       <c r="H89" s="13">
-        <v>415118458</v>
+        <v>401206116</v>
       </c>
       <c r="I89" s="13">
-        <v>401206116</v>
+        <v>523351673</v>
       </c>
       <c r="J89" s="13">
-        <v>523351673</v>
+        <v>634289837</v>
       </c>
       <c r="K89" s="13">
-        <v>634289837</v>
+        <v>825868256</v>
       </c>
       <c r="L89" s="13">
-        <v>825868256</v>
+        <v>740960762</v>
       </c>
       <c r="M89" s="13">
-        <v>740960762</v>
+        <v>663002300</v>
       </c>
       <c r="N89" s="13">
-        <v>663002300</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>694235344</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3402,7 +3402,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3417,7 +3417,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3432,7 +3432,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>42</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3484,7 +3484,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>29</v>
       </c>
@@ -3493,13 +3493,13 @@
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>1294</v>
+        <v>208826</v>
       </c>
       <c r="F95" s="9">
-        <v>208826</v>
+        <v>151980</v>
       </c>
       <c r="G95" s="9">
-        <v>151980</v>
+        <v>0</v>
       </c>
       <c r="H95" s="9">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="J95" s="9">
-        <v>0</v>
+        <v>21004</v>
       </c>
       <c r="K95" s="9">
-        <v>21004</v>
-      </c>
-      <c r="L95" s="9">
-        <v>0</v>
-      </c>
-      <c r="M95" s="9" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M95" s="9">
+        <v>2340213</v>
       </c>
       <c r="N95" s="9">
-        <v>2340213</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>152079</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>32</v>
       </c>
@@ -3532,37 +3532,37 @@
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
-        <v>3515519</v>
+        <v>2988233</v>
       </c>
       <c r="F96" s="11">
-        <v>2988233</v>
+        <v>3793235</v>
       </c>
       <c r="G96" s="11">
-        <v>3793235</v>
+        <v>3877274</v>
       </c>
       <c r="H96" s="11">
-        <v>3877274</v>
+        <v>5199111</v>
       </c>
       <c r="I96" s="11">
-        <v>5199111</v>
+        <v>5625328</v>
       </c>
       <c r="J96" s="11">
-        <v>5625328</v>
+        <v>7978985</v>
       </c>
       <c r="K96" s="11">
-        <v>7978985</v>
+        <v>11316422</v>
       </c>
       <c r="L96" s="11">
-        <v>11316422</v>
+        <v>10906060</v>
       </c>
       <c r="M96" s="11">
-        <v>10906060</v>
+        <v>7613760</v>
       </c>
       <c r="N96" s="11">
-        <v>7613760</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9579182</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>33</v>
       </c>
@@ -3571,37 +3571,37 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>205542874</v>
+        <v>314642799</v>
       </c>
       <c r="F97" s="9">
-        <v>314642799</v>
+        <v>327648025</v>
       </c>
       <c r="G97" s="9">
-        <v>327648025</v>
+        <v>407744465</v>
       </c>
       <c r="H97" s="9">
-        <v>407744465</v>
+        <v>405516750</v>
       </c>
       <c r="I97" s="9">
-        <v>405516750</v>
+        <v>516923540</v>
       </c>
       <c r="J97" s="9">
-        <v>516923540</v>
+        <v>610595911</v>
       </c>
       <c r="K97" s="9">
-        <v>610595911</v>
+        <v>805759325</v>
       </c>
       <c r="L97" s="9">
-        <v>805759325</v>
+        <v>744337397</v>
       </c>
       <c r="M97" s="9">
-        <v>744337397</v>
+        <v>649786232</v>
       </c>
       <c r="N97" s="9">
-        <v>649786232</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>692159185</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>34</v>
       </c>
@@ -3610,37 +3610,37 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>125118</v>
+        <v>-1</v>
       </c>
       <c r="F98" s="11">
-        <v>-1</v>
+        <v>-5443</v>
       </c>
       <c r="G98" s="11">
-        <v>-5443</v>
+        <v>13073</v>
       </c>
       <c r="H98" s="11">
-        <v>13073</v>
+        <v>-13073</v>
       </c>
       <c r="I98" s="11">
-        <v>-13073</v>
+        <v>0</v>
       </c>
       <c r="J98" s="11">
-        <v>0</v>
+        <v>51239</v>
       </c>
       <c r="K98" s="11">
-        <v>51239</v>
+        <v>0</v>
       </c>
       <c r="L98" s="11">
-        <v>0</v>
+        <v>256276</v>
       </c>
       <c r="M98" s="11">
-        <v>256276</v>
+        <v>0</v>
       </c>
       <c r="N98" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>35</v>
       </c>
@@ -3679,44 +3679,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>209184805</v>
+        <v>317839857</v>
       </c>
       <c r="F100" s="13">
-        <v>317839857</v>
+        <v>331587797</v>
       </c>
       <c r="G100" s="13">
-        <v>331587797</v>
+        <v>411634812</v>
       </c>
       <c r="H100" s="13">
-        <v>411634812</v>
+        <v>410702788</v>
       </c>
       <c r="I100" s="13">
-        <v>410702788</v>
+        <v>522548868</v>
       </c>
       <c r="J100" s="13">
-        <v>522548868</v>
+        <v>618647139</v>
       </c>
       <c r="K100" s="13">
-        <v>618647139</v>
+        <v>817075747</v>
       </c>
       <c r="L100" s="13">
-        <v>817075747</v>
+        <v>755499733</v>
       </c>
       <c r="M100" s="13">
-        <v>755499733</v>
+        <v>659740205</v>
       </c>
       <c r="N100" s="13">
-        <v>659740205</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>701890446</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3731,7 +3731,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3746,7 +3746,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3761,7 +3761,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>43</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3813,7 +3813,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>29</v>
       </c>
@@ -3822,13 +3822,13 @@
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
-        <v>78610</v>
+        <v>132735</v>
       </c>
       <c r="F106" s="9">
-        <v>132735</v>
+        <v>21003</v>
       </c>
       <c r="G106" s="9">
-        <v>21003</v>
+        <v>263108</v>
       </c>
       <c r="H106" s="9">
         <v>263108</v>
@@ -3837,22 +3837,22 @@
         <v>263108</v>
       </c>
       <c r="J106" s="9">
-        <v>263108</v>
+        <v>0</v>
       </c>
       <c r="K106" s="9">
         <v>0</v>
       </c>
-      <c r="L106" s="9">
-        <v>0</v>
-      </c>
-      <c r="M106" s="9" t="s">
-        <v>31</v>
+      <c r="L106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M106" s="9">
+        <v>146014</v>
       </c>
       <c r="N106" s="9">
-        <v>146014</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>32</v>
       </c>
@@ -3861,37 +3861,37 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>653812</v>
+        <v>277110</v>
       </c>
       <c r="F107" s="11">
-        <v>277110</v>
+        <v>428834</v>
       </c>
       <c r="G107" s="11">
-        <v>428834</v>
+        <v>208719</v>
       </c>
       <c r="H107" s="11">
-        <v>208719</v>
+        <v>639762</v>
       </c>
       <c r="I107" s="11">
-        <v>639762</v>
+        <v>734288</v>
       </c>
       <c r="J107" s="11">
-        <v>734288</v>
+        <v>787769</v>
       </c>
       <c r="K107" s="11">
-        <v>787769</v>
+        <v>858761</v>
       </c>
       <c r="L107" s="11">
-        <v>858761</v>
+        <v>561198</v>
       </c>
       <c r="M107" s="11">
-        <v>561198</v>
+        <v>1008959</v>
       </c>
       <c r="N107" s="11">
-        <v>1008959</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1578417</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>33</v>
       </c>
@@ -3900,37 +3900,37 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
-        <v>18299208</v>
+        <v>20262882</v>
       </c>
       <c r="F108" s="9">
-        <v>20262882</v>
+        <v>29631663</v>
       </c>
       <c r="G108" s="9">
-        <v>29631663</v>
+        <v>33348498</v>
       </c>
       <c r="H108" s="9">
-        <v>33348498</v>
+        <v>23407710</v>
       </c>
       <c r="I108" s="9">
-        <v>23407710</v>
+        <v>24115989</v>
       </c>
       <c r="J108" s="9">
-        <v>24115989</v>
+        <v>39777449</v>
       </c>
       <c r="K108" s="9">
-        <v>39777449</v>
+        <v>48498966</v>
       </c>
       <c r="L108" s="9">
-        <v>48498966</v>
+        <v>34513834</v>
       </c>
       <c r="M108" s="9">
-        <v>34513834</v>
+        <v>37182154</v>
       </c>
       <c r="N108" s="9">
-        <v>37182154</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19103608</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>34</v>
       </c>
@@ -3939,28 +3939,28 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>292347</v>
+        <v>292348</v>
       </c>
       <c r="F109" s="11">
-        <v>292348</v>
+        <v>307514</v>
       </c>
       <c r="G109" s="11">
-        <v>307514</v>
+        <v>294442</v>
       </c>
       <c r="H109" s="11">
-        <v>294442</v>
+        <v>307515</v>
       </c>
       <c r="I109" s="11">
         <v>307515</v>
       </c>
       <c r="J109" s="11">
-        <v>307515</v>
+        <v>256276</v>
       </c>
       <c r="K109" s="11">
         <v>256276</v>
       </c>
       <c r="L109" s="11">
-        <v>256276</v>
+        <v>0</v>
       </c>
       <c r="M109" s="11">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>35</v>
       </c>
@@ -4008,44 +4008,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
-        <v>19323977</v>
+        <v>20965075</v>
       </c>
       <c r="F111" s="13">
-        <v>20965075</v>
+        <v>30389014</v>
       </c>
       <c r="G111" s="13">
-        <v>30389014</v>
+        <v>34114767</v>
       </c>
       <c r="H111" s="13">
-        <v>34114767</v>
+        <v>24618095</v>
       </c>
       <c r="I111" s="13">
-        <v>24618095</v>
+        <v>25420900</v>
       </c>
       <c r="J111" s="13">
-        <v>25420900</v>
+        <v>40821494</v>
       </c>
       <c r="K111" s="13">
-        <v>40821494</v>
+        <v>49614003</v>
       </c>
       <c r="L111" s="13">
-        <v>49614003</v>
+        <v>35075032</v>
       </c>
       <c r="M111" s="13">
-        <v>35075032</v>
+        <v>38337127</v>
       </c>
       <c r="N111" s="13">
-        <v>38337127</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20682025</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4060,7 +4060,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4075,7 +4075,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4090,7 +4090,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>44</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4142,7 +4142,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>29</v>
       </c>
@@ -4151,13 +4151,13 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>10662397</v>
+        <v>10661874</v>
       </c>
       <c r="F117" s="9">
-        <v>10661874</v>
+        <v>68455389</v>
       </c>
       <c r="G117" s="9">
-        <v>68455389</v>
+        <v>696052910</v>
       </c>
       <c r="H117" s="9">
         <v>696052910</v>
@@ -4168,8 +4168,8 @@
       <c r="J117" s="9">
         <v>696052910</v>
       </c>
-      <c r="K117" s="9">
-        <v>696052910</v>
+      <c r="K117" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L117" s="9" t="s">
         <v>31</v>
@@ -4181,7 +4181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
@@ -4190,37 +4190,37 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>44349206</v>
+        <v>83192773</v>
       </c>
       <c r="F118" s="11">
-        <v>83192773</v>
+        <v>83998181</v>
       </c>
       <c r="G118" s="11">
-        <v>83998181</v>
+        <v>97484428</v>
       </c>
       <c r="H118" s="11">
-        <v>97484428</v>
+        <v>146469474</v>
       </c>
       <c r="I118" s="11">
-        <v>146469474</v>
+        <v>164167821</v>
       </c>
       <c r="J118" s="11">
-        <v>164167821</v>
+        <v>173672658</v>
       </c>
       <c r="K118" s="11">
-        <v>173672658</v>
+        <v>194558903</v>
       </c>
       <c r="L118" s="11">
-        <v>194558903</v>
+        <v>10408215</v>
       </c>
       <c r="M118" s="11">
-        <v>10408215</v>
+        <v>318681431</v>
       </c>
       <c r="N118" s="11">
-        <v>318681431</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>296142941</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>33</v>
       </c>
@@ -4229,37 +4229,37 @@
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
-        <v>26900079</v>
+        <v>46283520</v>
       </c>
       <c r="F119" s="9">
-        <v>46283520</v>
+        <v>70481551</v>
       </c>
       <c r="G119" s="9">
-        <v>70481551</v>
+        <v>78430276</v>
       </c>
       <c r="H119" s="9">
-        <v>78430276</v>
+        <v>80297072</v>
       </c>
       <c r="I119" s="9">
-        <v>80297072</v>
+        <v>91056845</v>
       </c>
       <c r="J119" s="9">
-        <v>91056845</v>
+        <v>99480196</v>
       </c>
       <c r="K119" s="9">
-        <v>99480196</v>
+        <v>141451550</v>
       </c>
       <c r="L119" s="9">
-        <v>141451550</v>
+        <v>163740542</v>
       </c>
       <c r="M119" s="9">
-        <v>163740542</v>
+        <v>122733746</v>
       </c>
       <c r="N119" s="9">
-        <v>122733746</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>127141948</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>34</v>
       </c>
@@ -4268,37 +4268,37 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
-        <v>28243731</v>
+        <v>15897064</v>
       </c>
       <c r="F120" s="11">
-        <v>15897064</v>
+        <v>15897118</v>
       </c>
       <c r="G120" s="11">
-        <v>15897118</v>
+        <v>25783097</v>
       </c>
       <c r="H120" s="11">
-        <v>25783097</v>
+        <v>24687013</v>
       </c>
       <c r="I120" s="11">
-        <v>24687013</v>
+        <v>25664747</v>
       </c>
       <c r="J120" s="11">
         <v>25664747</v>
       </c>
       <c r="K120" s="11">
-        <v>25664747</v>
+        <v>25782294</v>
       </c>
       <c r="L120" s="11">
         <v>25782294</v>
       </c>
-      <c r="M120" s="11">
-        <v>25782294</v>
+      <c r="M120" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="N120" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>35</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4352,7 +4352,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4367,7 +4367,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4382,7 +4382,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>46</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4434,7 +4434,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>29</v>
       </c>
@@ -4442,15 +4442,15 @@
         <v>45</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
-        <v>31</v>
+      <c r="E127" s="9">
+        <v>83956258</v>
       </c>
       <c r="F127" s="9">
-        <v>83956258</v>
-      </c>
-      <c r="G127" s="9">
         <v>87495652</v>
       </c>
+      <c r="G127" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H127" s="9" t="s">
         <v>31</v>
       </c>
@@ -4466,14 +4466,14 @@
       <c r="L127" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M127" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N127" s="9">
+      <c r="M127" s="9">
         <v>146602217</v>
       </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N127" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>32</v>
       </c>
@@ -4482,37 +4482,37 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>103862481</v>
+        <v>85666098</v>
       </c>
       <c r="F128" s="11">
-        <v>85666098</v>
+        <v>142237570</v>
       </c>
       <c r="G128" s="11">
-        <v>142237570</v>
+        <v>155802795</v>
       </c>
       <c r="H128" s="11">
-        <v>155802795</v>
+        <v>179831161</v>
       </c>
       <c r="I128" s="11">
-        <v>179831161</v>
+        <v>192736934</v>
       </c>
       <c r="J128" s="11">
-        <v>192736934</v>
+        <v>252823833</v>
       </c>
       <c r="K128" s="11">
-        <v>252823833</v>
+        <v>97973948</v>
       </c>
       <c r="L128" s="11">
-        <v>97973948</v>
+        <v>-217512036</v>
       </c>
       <c r="M128" s="11">
-        <v>-217512036</v>
+        <v>246771183</v>
       </c>
       <c r="N128" s="11">
-        <v>246771183</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>133545280</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>33</v>
       </c>
@@ -4521,37 +4521,37 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>41935381</v>
+        <v>63575495</v>
       </c>
       <c r="F129" s="9">
-        <v>63575495</v>
+        <v>66845761</v>
       </c>
       <c r="G129" s="9">
-        <v>66845761</v>
+        <v>80178482</v>
       </c>
       <c r="H129" s="9">
-        <v>80178482</v>
+        <v>89939788</v>
       </c>
       <c r="I129" s="9">
-        <v>89939788</v>
+        <v>103829442</v>
       </c>
       <c r="J129" s="9">
-        <v>103829442</v>
+        <v>124547309</v>
       </c>
       <c r="K129" s="9">
-        <v>124547309</v>
+        <v>155267444</v>
       </c>
       <c r="L129" s="9">
-        <v>155267444</v>
+        <v>144211822</v>
       </c>
       <c r="M129" s="9">
-        <v>144211822</v>
+        <v>133564743</v>
       </c>
       <c r="N129" s="9">
-        <v>133564743</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>127067367</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>34</v>
       </c>
@@ -4559,15 +4559,15 @@
         <v>45</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11">
-        <v>143414520</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G130" s="11">
+      <c r="E130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130" s="11">
         <v>26137097</v>
       </c>
+      <c r="G130" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H130" s="11" t="s">
         <v>31</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4605,7 +4605,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4620,7 +4620,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4635,7 +4635,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
         <v>47</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4687,7 +4687,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>29</v>
       </c>
@@ -4696,37 +4696,37 @@
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9">
-        <v>10694215</v>
+        <v>24378473</v>
       </c>
       <c r="F136" s="9">
-        <v>24378473</v>
-      </c>
-      <c r="G136" s="9">
         <v>71960227</v>
       </c>
+      <c r="G136" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H136" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I136" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J136" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K136" s="9">
+      <c r="J136" s="9">
         <v>73184669</v>
       </c>
+      <c r="K136" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="L136" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M136" s="9" t="s">
-        <v>31</v>
+      <c r="M136" s="9">
+        <v>146602330</v>
       </c>
       <c r="N136" s="9">
-        <v>146602330</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>152689759</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>32</v>
       </c>
@@ -4735,37 +4735,37 @@
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
-        <v>108651224</v>
+        <v>85268455</v>
       </c>
       <c r="F137" s="11">
-        <v>85268455</v>
+        <v>142420778</v>
       </c>
       <c r="G137" s="11">
-        <v>142420778</v>
+        <v>146605437</v>
       </c>
       <c r="H137" s="11">
-        <v>146605437</v>
+        <v>180299313</v>
       </c>
       <c r="I137" s="11">
-        <v>180299313</v>
+        <v>191689770</v>
       </c>
       <c r="J137" s="11">
-        <v>191689770</v>
+        <v>249733490</v>
       </c>
       <c r="K137" s="11">
-        <v>249733490</v>
+        <v>299614032</v>
       </c>
       <c r="L137" s="11">
-        <v>299614032</v>
+        <v>341080844</v>
       </c>
       <c r="M137" s="11">
-        <v>341080844</v>
+        <v>245430984</v>
       </c>
       <c r="N137" s="11">
-        <v>245430984</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>132155814</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>33</v>
       </c>
@@ -4774,37 +4774,37 @@
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9">
-        <v>40811184</v>
+        <v>61841534</v>
       </c>
       <c r="F138" s="9">
-        <v>61841534</v>
+        <v>66172938</v>
       </c>
       <c r="G138" s="9">
-        <v>66172938</v>
+        <v>80039162</v>
       </c>
       <c r="H138" s="9">
-        <v>80039162</v>
+        <v>88997851</v>
       </c>
       <c r="I138" s="9">
-        <v>88997851</v>
+        <v>103383633</v>
       </c>
       <c r="J138" s="9">
-        <v>103383633</v>
+        <v>122376638</v>
       </c>
       <c r="K138" s="9">
-        <v>122376638</v>
+        <v>154044881</v>
       </c>
       <c r="L138" s="9">
-        <v>154044881</v>
+        <v>146539667</v>
       </c>
       <c r="M138" s="9">
-        <v>146539667</v>
+        <v>133325201</v>
       </c>
       <c r="N138" s="9">
-        <v>133325201</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>127059247</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>34</v>
       </c>
@@ -4812,38 +4812,38 @@
         <v>45</v>
       </c>
       <c r="D139" s="11"/>
-      <c r="E139" s="11">
-        <v>-66979657</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G139" s="11">
+      <c r="E139" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139" s="11">
         <v>-796459</v>
       </c>
+      <c r="G139" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H139" s="11" t="s">
         <v>31</v>
       </c>
       <c r="I139" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J139" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K139" s="11">
+      <c r="J139" s="11">
         <v>25787116</v>
       </c>
-      <c r="L139" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M139" s="11">
+      <c r="K139" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L139" s="11">
         <v>25782294</v>
       </c>
-      <c r="N139" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M139" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N139" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>35</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4897,7 +4897,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4912,7 +4912,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4927,7 +4927,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
         <v>48</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4979,7 +4979,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>29</v>
       </c>
@@ -4996,14 +4996,14 @@
       <c r="G146" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H146" s="9" t="s">
-        <v>31</v>
+      <c r="H146" s="9">
+        <v>696052910</v>
       </c>
       <c r="I146" s="9">
         <v>696052910</v>
       </c>
-      <c r="J146" s="9">
-        <v>696052910</v>
+      <c r="J146" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="K146" s="9" t="s">
         <v>31</v>
@@ -5011,14 +5011,14 @@
       <c r="L146" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M146" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N146" s="9">
+      <c r="M146" s="9">
         <v>146600402</v>
       </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N146" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>32</v>
       </c>
@@ -5035,29 +5035,29 @@
       <c r="G147" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H147" s="11" t="s">
-        <v>31</v>
+      <c r="H147" s="11">
+        <v>164167821</v>
       </c>
       <c r="I147" s="11">
-        <v>164167821</v>
+        <v>173672658</v>
       </c>
       <c r="J147" s="11">
-        <v>173672658</v>
+        <v>194558903</v>
       </c>
       <c r="K147" s="11">
-        <v>194558903</v>
+        <v>10408215</v>
       </c>
       <c r="L147" s="11">
-        <v>10408215</v>
+        <v>318681431</v>
       </c>
       <c r="M147" s="11">
-        <v>318681431</v>
+        <v>296142941</v>
       </c>
       <c r="N147" s="11">
-        <v>296142941</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>228193870</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>33</v>
       </c>
@@ -5074,29 +5074,29 @@
       <c r="G148" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H148" s="9" t="s">
-        <v>31</v>
+      <c r="H148" s="9">
+        <v>91056845</v>
       </c>
       <c r="I148" s="9">
-        <v>91056845</v>
+        <v>99480196</v>
       </c>
       <c r="J148" s="9">
-        <v>99480196</v>
+        <v>141452053</v>
       </c>
       <c r="K148" s="9">
-        <v>141452053</v>
+        <v>163740542</v>
       </c>
       <c r="L148" s="9">
-        <v>163740542</v>
+        <v>122733746</v>
       </c>
       <c r="M148" s="9">
-        <v>122733746</v>
+        <v>127141948</v>
       </c>
       <c r="N148" s="9">
-        <v>127141948</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>83596729</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>34</v>
       </c>
@@ -5113,29 +5113,29 @@
       <c r="G149" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H149" s="11" t="s">
-        <v>31</v>
+      <c r="H149" s="11">
+        <v>25664747</v>
       </c>
       <c r="I149" s="11">
         <v>25664747</v>
       </c>
       <c r="J149" s="11">
-        <v>25664747</v>
+        <v>25782294</v>
       </c>
       <c r="K149" s="11">
         <v>25782294</v>
       </c>
-      <c r="L149" s="11">
-        <v>25782294</v>
+      <c r="L149" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="M149" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N149" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N149" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>35</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5189,7 +5189,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5204,7 +5204,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5219,7 +5219,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
         <v>49</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -5271,7 +5271,7 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>50</v>
       </c>
@@ -5293,22 +5293,22 @@
         <v>0</v>
       </c>
       <c r="J156" s="9">
-        <v>0</v>
+        <v>-5495817</v>
       </c>
       <c r="K156" s="9">
-        <v>-5495817</v>
+        <v>0</v>
       </c>
       <c r="L156" s="9">
-        <v>0</v>
+        <v>-2926543</v>
       </c>
       <c r="M156" s="9">
-        <v>-2926543</v>
+        <v>-1362326</v>
       </c>
       <c r="N156" s="9">
-        <v>-1362326</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4305238</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>51</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>52</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>53</v>
       </c>
@@ -5419,155 +5419,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9">
-        <v>0</v>
+        <v>-1928307</v>
       </c>
       <c r="F160" s="9">
-        <v>-1928307</v>
+        <v>-1563457</v>
       </c>
       <c r="G160" s="9">
-        <v>-1563457</v>
+        <v>-919861</v>
       </c>
       <c r="H160" s="9">
-        <v>-919861</v>
+        <v>-797980</v>
       </c>
       <c r="I160" s="9">
-        <v>-797980</v>
+        <v>-890009</v>
       </c>
       <c r="J160" s="9">
-        <v>-890009</v>
+        <v>2607850</v>
       </c>
       <c r="K160" s="9">
-        <v>2607850</v>
+        <v>-1473482</v>
       </c>
       <c r="L160" s="9">
-        <v>-1473482</v>
+        <v>1473482</v>
       </c>
       <c r="M160" s="9">
-        <v>1473482</v>
+        <v>0</v>
       </c>
       <c r="N160" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11">
-        <v>399878</v>
+        <v>324176</v>
       </c>
       <c r="F161" s="11">
-        <v>324176</v>
+        <v>451091</v>
       </c>
       <c r="G161" s="11">
-        <v>451091</v>
+        <v>2464140</v>
       </c>
       <c r="H161" s="11">
-        <v>2464140</v>
+        <v>2271363</v>
       </c>
       <c r="I161" s="11">
-        <v>2271363</v>
+        <v>5333614</v>
       </c>
       <c r="J161" s="11">
-        <v>5333614</v>
+        <v>8168248</v>
       </c>
       <c r="K161" s="11">
-        <v>8168248</v>
+        <v>5588894</v>
       </c>
       <c r="L161" s="11">
-        <v>5588894</v>
+        <v>7352297</v>
       </c>
       <c r="M161" s="11">
-        <v>7352297</v>
+        <v>6656631</v>
       </c>
       <c r="N161" s="11">
-        <v>6656631</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10976729</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9">
-        <v>421050</v>
+        <v>393648</v>
       </c>
       <c r="F162" s="9">
-        <v>393648</v>
+        <v>363351</v>
       </c>
       <c r="G162" s="9">
-        <v>363351</v>
+        <v>410857</v>
       </c>
       <c r="H162" s="9">
-        <v>410857</v>
+        <v>356620</v>
       </c>
       <c r="I162" s="9">
-        <v>356620</v>
+        <v>383738</v>
       </c>
       <c r="J162" s="9">
-        <v>383738</v>
+        <v>777219</v>
       </c>
       <c r="K162" s="9">
-        <v>777219</v>
+        <v>474680</v>
       </c>
       <c r="L162" s="9">
-        <v>474680</v>
+        <v>590753</v>
       </c>
       <c r="M162" s="9">
-        <v>590753</v>
+        <v>536913</v>
       </c>
       <c r="N162" s="9">
-        <v>536913</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+        <v>588357</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11">
-        <v>327889</v>
+        <v>559360</v>
       </c>
       <c r="F163" s="11">
-        <v>559360</v>
+        <v>1347431</v>
       </c>
       <c r="G163" s="11">
-        <v>1347431</v>
+        <v>903439</v>
       </c>
       <c r="H163" s="11">
-        <v>903439</v>
+        <v>-700677</v>
       </c>
       <c r="I163" s="11">
-        <v>-700677</v>
+        <v>2663068</v>
       </c>
       <c r="J163" s="11">
-        <v>2663068</v>
+        <v>1096389</v>
       </c>
       <c r="K163" s="11">
-        <v>1096389</v>
+        <v>1279380</v>
       </c>
       <c r="L163" s="11">
-        <v>1279380</v>
+        <v>2467244</v>
       </c>
       <c r="M163" s="11">
-        <v>2467244</v>
+        <v>4001913</v>
       </c>
       <c r="N163" s="11">
-        <v>4001913</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5378350</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>58</v>
       </c>
@@ -5604,81 +5604,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11">
-        <v>18129</v>
+        <v>1857198</v>
       </c>
       <c r="F165" s="11">
-        <v>1857198</v>
+        <v>1273589</v>
       </c>
       <c r="G165" s="11">
-        <v>1273589</v>
+        <v>799793</v>
       </c>
       <c r="H165" s="11">
-        <v>799793</v>
+        <v>7120401</v>
       </c>
       <c r="I165" s="11">
-        <v>7120401</v>
+        <v>1385214</v>
       </c>
       <c r="J165" s="11">
-        <v>1385214</v>
+        <v>-3610429</v>
       </c>
       <c r="K165" s="11">
-        <v>-3610429</v>
+        <v>2156956</v>
       </c>
       <c r="L165" s="11">
-        <v>2156956</v>
+        <v>1569208</v>
       </c>
       <c r="M165" s="11">
-        <v>1569208</v>
+        <v>2041310</v>
       </c>
       <c r="N165" s="11">
-        <v>2041310</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5872364</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15">
-        <v>1166946</v>
+        <v>1206075</v>
       </c>
       <c r="F166" s="15">
-        <v>1206075</v>
+        <v>1872005</v>
       </c>
       <c r="G166" s="15">
-        <v>1872005</v>
+        <v>3658368</v>
       </c>
       <c r="H166" s="15">
-        <v>3658368</v>
+        <v>8249727</v>
       </c>
       <c r="I166" s="15">
-        <v>8249727</v>
+        <v>8875625</v>
       </c>
       <c r="J166" s="15">
-        <v>8875625</v>
+        <v>3543460</v>
       </c>
       <c r="K166" s="15">
-        <v>3543460</v>
+        <v>8026428</v>
       </c>
       <c r="L166" s="15">
-        <v>8026428</v>
+        <v>10526441</v>
       </c>
       <c r="M166" s="15">
-        <v>10526441</v>
+        <v>11874441</v>
       </c>
       <c r="N166" s="15">
-        <v>11874441</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18510562</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5693,7 +5693,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5708,7 +5708,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5723,7 +5723,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B170" s="7" t="s">
         <v>60</v>
       </c>
@@ -5740,7 +5740,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -5755,7 +5755,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>61</v>
       </c>
@@ -5774,7 +5774,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>63</v>
       </c>
@@ -5785,7 +5785,7 @@
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="8" t="s">
         <v>65</v>
       </c>
@@ -5796,7 +5796,7 @@
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>67</v>
       </c>
@@ -5807,7 +5807,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="8" t="s">
         <v>68</v>
       </c>
@@ -5818,7 +5818,7 @@
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>70</v>
       </c>
@@ -5829,7 +5829,7 @@
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>72</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>74</v>
       </c>
@@ -5851,7 +5851,7 @@
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>76</v>
       </c>
@@ -5862,7 +5862,7 @@
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>77</v>
       </c>
@@ -5873,7 +5873,7 @@
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>79</v>
       </c>
@@ -5884,7 +5884,7 @@
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>81</v>
       </c>
